--- a/excel/finished/焦化12/CK12-干熄焦-CDQ除尘报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-干熄焦-CDQ除尘报表（日）.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
-    <sheet name="_CDQdust_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_speed_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -574,64 +574,64 @@
     <t>L2存储点名</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD40_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD40_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD44_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD44_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD28_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD28_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD32_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD32_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD36_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD36_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD80_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD80_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD60_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD60_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD56_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD56_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD20_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD20_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD24_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD24_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD64_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD64_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD68_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD68_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD72_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD72_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD76_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD76_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD8_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD8_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD48_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD48_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD0_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD0_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD52_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD52_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD12_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD12_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L2C_CDQ_DB1DBD16_1m_avg</t>
+    <t>CK12_L1R_CDQ_DB1DBD16_1m_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -937,9 +937,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
@@ -1014,39 +1014,30 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,7 +1051,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,6 +1059,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1082,40 +1109,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,8 +1131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,23 +1147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -1184,7 +1184,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1286,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,49 +1346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,97 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,6 +1777,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1792,26 +1801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,7 +1829,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,36 +1874,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1892,136 +1892,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2456,7 +2456,7 @@
   <dimension ref="B1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2691,87 +2691,87 @@
         <v>0</v>
       </c>
       <c r="C6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A2="","",_CDQdust_day_hour!A2)</f>
+        <f>IF(_speed_day_hour!A2="","",_speed_day_hour!A2)</f>
         <v/>
       </c>
       <c r="D6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B2="","",_CDQdust_day_hour!B2)</f>
+        <f>IF(_speed_day_hour!B2="","",_speed_day_hour!B2)</f>
         <v/>
       </c>
       <c r="E6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C2="","",_CDQdust_day_hour!C2)</f>
+        <f>IF(_speed_day_hour!C2="","",_speed_day_hour!C2)</f>
         <v/>
       </c>
       <c r="F6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D2="","",_CDQdust_day_hour!D2)</f>
+        <f>IF(_speed_day_hour!D2="","",_speed_day_hour!D2)</f>
         <v/>
       </c>
       <c r="G6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E2="","",_CDQdust_day_hour!E2)</f>
+        <f>IF(_speed_day_hour!E2="","",_speed_day_hour!E2)</f>
         <v/>
       </c>
       <c r="H6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F2="","",_CDQdust_day_hour!F2)</f>
+        <f>IF(_speed_day_hour!F2="","",_speed_day_hour!F2)</f>
         <v/>
       </c>
       <c r="I6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G2="","",_CDQdust_day_hour!G2)</f>
+        <f>IF(_speed_day_hour!G2="","",_speed_day_hour!G2)</f>
         <v/>
       </c>
       <c r="J6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H2="","",_CDQdust_day_hour!H2)</f>
+        <f>IF(_speed_day_hour!H2="","",_speed_day_hour!H2)</f>
         <v/>
       </c>
       <c r="K6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I2="","",_CDQdust_day_hour!I2)</f>
+        <f>IF(_speed_day_hour!I2="","",_speed_day_hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J2="","",_CDQdust_day_hour!J2)</f>
+        <f>IF(_speed_day_hour!J2="","",_speed_day_hour!J2)</f>
         <v/>
       </c>
       <c r="M6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K2="","",_CDQdust_day_hour!K2)</f>
+        <f>IF(_speed_day_hour!K2="","",_speed_day_hour!K2)</f>
         <v/>
       </c>
       <c r="N6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L2="","",_CDQdust_day_hour!L2)</f>
+        <f>IF(_speed_day_hour!L2="","",_speed_day_hour!L2)</f>
         <v/>
       </c>
       <c r="O6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M2="","",_CDQdust_day_hour!M2)</f>
+        <f>IF(_speed_day_hour!M2="","",_speed_day_hour!M2)</f>
         <v/>
       </c>
       <c r="P6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N2="","",_CDQdust_day_hour!N2)</f>
+        <f>IF(_speed_day_hour!N2="","",_speed_day_hour!N2)</f>
         <v/>
       </c>
       <c r="Q6" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O2="","",_CDQdust_day_hour!O2)</f>
+        <f>IF(_speed_day_hour!O2="","",_speed_day_hour!O2)</f>
         <v/>
       </c>
       <c r="R6" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P2="","",_CDQdust_day_hour!P2)</f>
+        <f>IF(_speed_day_hour!P2="","",_speed_day_hour!P2)</f>
         <v/>
       </c>
       <c r="S6" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q2="","",_CDQdust_day_hour!Q2)</f>
+        <f>IF(_speed_day_hour!Q2="","",_speed_day_hour!Q2)</f>
         <v/>
       </c>
       <c r="T6" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R2="","",_CDQdust_day_hour!R2)</f>
+        <f>IF(_speed_day_hour!R2="","",_speed_day_hour!R2)</f>
         <v/>
       </c>
       <c r="U6" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S2="","",_CDQdust_day_hour!S2)</f>
+        <f>IF(_speed_day_hour!S2="","",_speed_day_hour!S2)</f>
         <v/>
       </c>
       <c r="V6" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T2="","",_CDQdust_day_hour!T2)</f>
+        <f>IF(_speed_day_hour!T2="","",_speed_day_hour!T2)</f>
         <v/>
       </c>
       <c r="W6" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U2="","",_CDQdust_day_hour!U2)</f>
+        <f>IF(_speed_day_hour!U2="","",_speed_day_hour!U2)</f>
         <v/>
       </c>
     </row>
@@ -2780,87 +2780,87 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A3="","",_CDQdust_day_hour!A3)</f>
+        <f>IF(_speed_day_hour!A3="","",_speed_day_hour!A3)</f>
         <v/>
       </c>
       <c r="D7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B3="","",_CDQdust_day_hour!B3)</f>
+        <f>IF(_speed_day_hour!B3="","",_speed_day_hour!B3)</f>
         <v/>
       </c>
       <c r="E7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C3="","",_CDQdust_day_hour!C3)</f>
+        <f>IF(_speed_day_hour!C3="","",_speed_day_hour!C3)</f>
         <v/>
       </c>
       <c r="F7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D3="","",_CDQdust_day_hour!D3)</f>
+        <f>IF(_speed_day_hour!D3="","",_speed_day_hour!D3)</f>
         <v/>
       </c>
       <c r="G7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E3="","",_CDQdust_day_hour!E3)</f>
+        <f>IF(_speed_day_hour!E3="","",_speed_day_hour!E3)</f>
         <v/>
       </c>
       <c r="H7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F3="","",_CDQdust_day_hour!F3)</f>
+        <f>IF(_speed_day_hour!F3="","",_speed_day_hour!F3)</f>
         <v/>
       </c>
       <c r="I7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G3="","",_CDQdust_day_hour!G3)</f>
+        <f>IF(_speed_day_hour!G3="","",_speed_day_hour!G3)</f>
         <v/>
       </c>
       <c r="J7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H3="","",_CDQdust_day_hour!H3)</f>
+        <f>IF(_speed_day_hour!H3="","",_speed_day_hour!H3)</f>
         <v/>
       </c>
       <c r="K7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I3="","",_CDQdust_day_hour!I3)</f>
+        <f>IF(_speed_day_hour!I3="","",_speed_day_hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J3="","",_CDQdust_day_hour!J3)</f>
+        <f>IF(_speed_day_hour!J3="","",_speed_day_hour!J3)</f>
         <v/>
       </c>
       <c r="M7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K3="","",_CDQdust_day_hour!K3)</f>
+        <f>IF(_speed_day_hour!K3="","",_speed_day_hour!K3)</f>
         <v/>
       </c>
       <c r="N7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L3="","",_CDQdust_day_hour!L3)</f>
+        <f>IF(_speed_day_hour!L3="","",_speed_day_hour!L3)</f>
         <v/>
       </c>
       <c r="O7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M3="","",_CDQdust_day_hour!M3)</f>
+        <f>IF(_speed_day_hour!M3="","",_speed_day_hour!M3)</f>
         <v/>
       </c>
       <c r="P7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N3="","",_CDQdust_day_hour!N3)</f>
+        <f>IF(_speed_day_hour!N3="","",_speed_day_hour!N3)</f>
         <v/>
       </c>
       <c r="Q7" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O3="","",_CDQdust_day_hour!O3)</f>
+        <f>IF(_speed_day_hour!O3="","",_speed_day_hour!O3)</f>
         <v/>
       </c>
       <c r="R7" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P3="","",_CDQdust_day_hour!P3)</f>
+        <f>IF(_speed_day_hour!P3="","",_speed_day_hour!P3)</f>
         <v/>
       </c>
       <c r="S7" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q3="","",_CDQdust_day_hour!Q3)</f>
+        <f>IF(_speed_day_hour!Q3="","",_speed_day_hour!Q3)</f>
         <v/>
       </c>
       <c r="T7" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R3="","",_CDQdust_day_hour!R3)</f>
+        <f>IF(_speed_day_hour!R3="","",_speed_day_hour!R3)</f>
         <v/>
       </c>
       <c r="U7" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S3="","",_CDQdust_day_hour!S3)</f>
+        <f>IF(_speed_day_hour!S3="","",_speed_day_hour!S3)</f>
         <v/>
       </c>
       <c r="V7" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T3="","",_CDQdust_day_hour!T3)</f>
+        <f>IF(_speed_day_hour!T3="","",_speed_day_hour!T3)</f>
         <v/>
       </c>
       <c r="W7" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U3="","",_CDQdust_day_hour!U3)</f>
+        <f>IF(_speed_day_hour!U3="","",_speed_day_hour!U3)</f>
         <v/>
       </c>
     </row>
@@ -2869,87 +2869,87 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A4="","",_CDQdust_day_hour!A4)</f>
+        <f>IF(_speed_day_hour!A4="","",_speed_day_hour!A4)</f>
         <v/>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B4="","",_CDQdust_day_hour!B4)</f>
+        <f>IF(_speed_day_hour!B4="","",_speed_day_hour!B4)</f>
         <v/>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C4="","",_CDQdust_day_hour!C4)</f>
+        <f>IF(_speed_day_hour!C4="","",_speed_day_hour!C4)</f>
         <v/>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D4="","",_CDQdust_day_hour!D4)</f>
+        <f>IF(_speed_day_hour!D4="","",_speed_day_hour!D4)</f>
         <v/>
       </c>
       <c r="G8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E4="","",_CDQdust_day_hour!E4)</f>
+        <f>IF(_speed_day_hour!E4="","",_speed_day_hour!E4)</f>
         <v/>
       </c>
       <c r="H8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F4="","",_CDQdust_day_hour!F4)</f>
+        <f>IF(_speed_day_hour!F4="","",_speed_day_hour!F4)</f>
         <v/>
       </c>
       <c r="I8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G4="","",_CDQdust_day_hour!G4)</f>
+        <f>IF(_speed_day_hour!G4="","",_speed_day_hour!G4)</f>
         <v/>
       </c>
       <c r="J8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H4="","",_CDQdust_day_hour!H4)</f>
+        <f>IF(_speed_day_hour!H4="","",_speed_day_hour!H4)</f>
         <v/>
       </c>
       <c r="K8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I4="","",_CDQdust_day_hour!I4)</f>
+        <f>IF(_speed_day_hour!I4="","",_speed_day_hour!I4)</f>
         <v/>
       </c>
       <c r="L8" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J4="","",_CDQdust_day_hour!J4)</f>
+        <f>IF(_speed_day_hour!J4="","",_speed_day_hour!J4)</f>
         <v/>
       </c>
       <c r="M8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K4="","",_CDQdust_day_hour!K4)</f>
+        <f>IF(_speed_day_hour!K4="","",_speed_day_hour!K4)</f>
         <v/>
       </c>
       <c r="N8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L4="","",_CDQdust_day_hour!L4)</f>
+        <f>IF(_speed_day_hour!L4="","",_speed_day_hour!L4)</f>
         <v/>
       </c>
       <c r="O8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M4="","",_CDQdust_day_hour!M4)</f>
+        <f>IF(_speed_day_hour!M4="","",_speed_day_hour!M4)</f>
         <v/>
       </c>
       <c r="P8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N4="","",_CDQdust_day_hour!N4)</f>
+        <f>IF(_speed_day_hour!N4="","",_speed_day_hour!N4)</f>
         <v/>
       </c>
       <c r="Q8" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O4="","",_CDQdust_day_hour!O4)</f>
+        <f>IF(_speed_day_hour!O4="","",_speed_day_hour!O4)</f>
         <v/>
       </c>
       <c r="R8" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P4="","",_CDQdust_day_hour!P4)</f>
+        <f>IF(_speed_day_hour!P4="","",_speed_day_hour!P4)</f>
         <v/>
       </c>
       <c r="S8" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q4="","",_CDQdust_day_hour!Q4)</f>
+        <f>IF(_speed_day_hour!Q4="","",_speed_day_hour!Q4)</f>
         <v/>
       </c>
       <c r="T8" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R4="","",_CDQdust_day_hour!R4)</f>
+        <f>IF(_speed_day_hour!R4="","",_speed_day_hour!R4)</f>
         <v/>
       </c>
       <c r="U8" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S4="","",_CDQdust_day_hour!S4)</f>
+        <f>IF(_speed_day_hour!S4="","",_speed_day_hour!S4)</f>
         <v/>
       </c>
       <c r="V8" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T4="","",_CDQdust_day_hour!T4)</f>
+        <f>IF(_speed_day_hour!T4="","",_speed_day_hour!T4)</f>
         <v/>
       </c>
       <c r="W8" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U4="","",_CDQdust_day_hour!U4)</f>
+        <f>IF(_speed_day_hour!U4="","",_speed_day_hour!U4)</f>
         <v/>
       </c>
     </row>
@@ -2958,87 +2958,87 @@
         <v>0.125</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A5="","",_CDQdust_day_hour!A5)</f>
+        <f>IF(_speed_day_hour!A5="","",_speed_day_hour!A5)</f>
         <v/>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B5="","",_CDQdust_day_hour!B5)</f>
+        <f>IF(_speed_day_hour!B5="","",_speed_day_hour!B5)</f>
         <v/>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C5="","",_CDQdust_day_hour!C5)</f>
+        <f>IF(_speed_day_hour!C5="","",_speed_day_hour!C5)</f>
         <v/>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D5="","",_CDQdust_day_hour!D5)</f>
+        <f>IF(_speed_day_hour!D5="","",_speed_day_hour!D5)</f>
         <v/>
       </c>
       <c r="G9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E5="","",_CDQdust_day_hour!E5)</f>
+        <f>IF(_speed_day_hour!E5="","",_speed_day_hour!E5)</f>
         <v/>
       </c>
       <c r="H9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F5="","",_CDQdust_day_hour!F5)</f>
+        <f>IF(_speed_day_hour!F5="","",_speed_day_hour!F5)</f>
         <v/>
       </c>
       <c r="I9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G5="","",_CDQdust_day_hour!G5)</f>
+        <f>IF(_speed_day_hour!G5="","",_speed_day_hour!G5)</f>
         <v/>
       </c>
       <c r="J9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H5="","",_CDQdust_day_hour!H5)</f>
+        <f>IF(_speed_day_hour!H5="","",_speed_day_hour!H5)</f>
         <v/>
       </c>
       <c r="K9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I5="","",_CDQdust_day_hour!I5)</f>
+        <f>IF(_speed_day_hour!I5="","",_speed_day_hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J5="","",_CDQdust_day_hour!J5)</f>
+        <f>IF(_speed_day_hour!J5="","",_speed_day_hour!J5)</f>
         <v/>
       </c>
       <c r="M9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K5="","",_CDQdust_day_hour!K5)</f>
+        <f>IF(_speed_day_hour!K5="","",_speed_day_hour!K5)</f>
         <v/>
       </c>
       <c r="N9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L5="","",_CDQdust_day_hour!L5)</f>
+        <f>IF(_speed_day_hour!L5="","",_speed_day_hour!L5)</f>
         <v/>
       </c>
       <c r="O9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M5="","",_CDQdust_day_hour!M5)</f>
+        <f>IF(_speed_day_hour!M5="","",_speed_day_hour!M5)</f>
         <v/>
       </c>
       <c r="P9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N5="","",_CDQdust_day_hour!N5)</f>
+        <f>IF(_speed_day_hour!N5="","",_speed_day_hour!N5)</f>
         <v/>
       </c>
       <c r="Q9" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O5="","",_CDQdust_day_hour!O5)</f>
+        <f>IF(_speed_day_hour!O5="","",_speed_day_hour!O5)</f>
         <v/>
       </c>
       <c r="R9" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P5="","",_CDQdust_day_hour!P5)</f>
+        <f>IF(_speed_day_hour!P5="","",_speed_day_hour!P5)</f>
         <v/>
       </c>
       <c r="S9" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q5="","",_CDQdust_day_hour!Q5)</f>
+        <f>IF(_speed_day_hour!Q5="","",_speed_day_hour!Q5)</f>
         <v/>
       </c>
       <c r="T9" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R5="","",_CDQdust_day_hour!R5)</f>
+        <f>IF(_speed_day_hour!R5="","",_speed_day_hour!R5)</f>
         <v/>
       </c>
       <c r="U9" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S5="","",_CDQdust_day_hour!S5)</f>
+        <f>IF(_speed_day_hour!S5="","",_speed_day_hour!S5)</f>
         <v/>
       </c>
       <c r="V9" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T5="","",_CDQdust_day_hour!T5)</f>
+        <f>IF(_speed_day_hour!T5="","",_speed_day_hour!T5)</f>
         <v/>
       </c>
       <c r="W9" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U5="","",_CDQdust_day_hour!U5)</f>
+        <f>IF(_speed_day_hour!U5="","",_speed_day_hour!U5)</f>
         <v/>
       </c>
     </row>
@@ -3047,87 +3047,87 @@
         <v>0.166666666666667</v>
       </c>
       <c r="C10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A6="","",_CDQdust_day_hour!A6)</f>
+        <f>IF(_speed_day_hour!A6="","",_speed_day_hour!A6)</f>
         <v/>
       </c>
       <c r="D10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B6="","",_CDQdust_day_hour!B6)</f>
+        <f>IF(_speed_day_hour!B6="","",_speed_day_hour!B6)</f>
         <v/>
       </c>
       <c r="E10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C6="","",_CDQdust_day_hour!C6)</f>
+        <f>IF(_speed_day_hour!C6="","",_speed_day_hour!C6)</f>
         <v/>
       </c>
       <c r="F10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D6="","",_CDQdust_day_hour!D6)</f>
+        <f>IF(_speed_day_hour!D6="","",_speed_day_hour!D6)</f>
         <v/>
       </c>
       <c r="G10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E6="","",_CDQdust_day_hour!E6)</f>
+        <f>IF(_speed_day_hour!E6="","",_speed_day_hour!E6)</f>
         <v/>
       </c>
       <c r="H10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F6="","",_CDQdust_day_hour!F6)</f>
+        <f>IF(_speed_day_hour!F6="","",_speed_day_hour!F6)</f>
         <v/>
       </c>
       <c r="I10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G6="","",_CDQdust_day_hour!G6)</f>
+        <f>IF(_speed_day_hour!G6="","",_speed_day_hour!G6)</f>
         <v/>
       </c>
       <c r="J10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H6="","",_CDQdust_day_hour!H6)</f>
+        <f>IF(_speed_day_hour!H6="","",_speed_day_hour!H6)</f>
         <v/>
       </c>
       <c r="K10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I6="","",_CDQdust_day_hour!I6)</f>
+        <f>IF(_speed_day_hour!I6="","",_speed_day_hour!I6)</f>
         <v/>
       </c>
       <c r="L10" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J6="","",_CDQdust_day_hour!J6)</f>
+        <f>IF(_speed_day_hour!J6="","",_speed_day_hour!J6)</f>
         <v/>
       </c>
       <c r="M10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K6="","",_CDQdust_day_hour!K6)</f>
+        <f>IF(_speed_day_hour!K6="","",_speed_day_hour!K6)</f>
         <v/>
       </c>
       <c r="N10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L6="","",_CDQdust_day_hour!L6)</f>
+        <f>IF(_speed_day_hour!L6="","",_speed_day_hour!L6)</f>
         <v/>
       </c>
       <c r="O10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M6="","",_CDQdust_day_hour!M6)</f>
+        <f>IF(_speed_day_hour!M6="","",_speed_day_hour!M6)</f>
         <v/>
       </c>
       <c r="P10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N6="","",_CDQdust_day_hour!N6)</f>
+        <f>IF(_speed_day_hour!N6="","",_speed_day_hour!N6)</f>
         <v/>
       </c>
       <c r="Q10" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O6="","",_CDQdust_day_hour!O6)</f>
+        <f>IF(_speed_day_hour!O6="","",_speed_day_hour!O6)</f>
         <v/>
       </c>
       <c r="R10" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P6="","",_CDQdust_day_hour!P6)</f>
+        <f>IF(_speed_day_hour!P6="","",_speed_day_hour!P6)</f>
         <v/>
       </c>
       <c r="S10" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q6="","",_CDQdust_day_hour!Q6)</f>
+        <f>IF(_speed_day_hour!Q6="","",_speed_day_hour!Q6)</f>
         <v/>
       </c>
       <c r="T10" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R6="","",_CDQdust_day_hour!R6)</f>
+        <f>IF(_speed_day_hour!R6="","",_speed_day_hour!R6)</f>
         <v/>
       </c>
       <c r="U10" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S6="","",_CDQdust_day_hour!S6)</f>
+        <f>IF(_speed_day_hour!S6="","",_speed_day_hour!S6)</f>
         <v/>
       </c>
       <c r="V10" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T6="","",_CDQdust_day_hour!T6)</f>
+        <f>IF(_speed_day_hour!T6="","",_speed_day_hour!T6)</f>
         <v/>
       </c>
       <c r="W10" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U6="","",_CDQdust_day_hour!U6)</f>
+        <f>IF(_speed_day_hour!U6="","",_speed_day_hour!U6)</f>
         <v/>
       </c>
     </row>
@@ -3136,87 +3136,87 @@
         <v>0.208333333333333</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A7="","",_CDQdust_day_hour!A7)</f>
+        <f>IF(_speed_day_hour!A7="","",_speed_day_hour!A7)</f>
         <v/>
       </c>
       <c r="D11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B7="","",_CDQdust_day_hour!B7)</f>
+        <f>IF(_speed_day_hour!B7="","",_speed_day_hour!B7)</f>
         <v/>
       </c>
       <c r="E11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C7="","",_CDQdust_day_hour!C7)</f>
+        <f>IF(_speed_day_hour!C7="","",_speed_day_hour!C7)</f>
         <v/>
       </c>
       <c r="F11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D7="","",_CDQdust_day_hour!D7)</f>
+        <f>IF(_speed_day_hour!D7="","",_speed_day_hour!D7)</f>
         <v/>
       </c>
       <c r="G11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E7="","",_CDQdust_day_hour!E7)</f>
+        <f>IF(_speed_day_hour!E7="","",_speed_day_hour!E7)</f>
         <v/>
       </c>
       <c r="H11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F7="","",_CDQdust_day_hour!F7)</f>
+        <f>IF(_speed_day_hour!F7="","",_speed_day_hour!F7)</f>
         <v/>
       </c>
       <c r="I11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G7="","",_CDQdust_day_hour!G7)</f>
+        <f>IF(_speed_day_hour!G7="","",_speed_day_hour!G7)</f>
         <v/>
       </c>
       <c r="J11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H7="","",_CDQdust_day_hour!H7)</f>
+        <f>IF(_speed_day_hour!H7="","",_speed_day_hour!H7)</f>
         <v/>
       </c>
       <c r="K11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I7="","",_CDQdust_day_hour!I7)</f>
+        <f>IF(_speed_day_hour!I7="","",_speed_day_hour!I7)</f>
         <v/>
       </c>
       <c r="L11" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J7="","",_CDQdust_day_hour!J7)</f>
+        <f>IF(_speed_day_hour!J7="","",_speed_day_hour!J7)</f>
         <v/>
       </c>
       <c r="M11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K7="","",_CDQdust_day_hour!K7)</f>
+        <f>IF(_speed_day_hour!K7="","",_speed_day_hour!K7)</f>
         <v/>
       </c>
       <c r="N11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L7="","",_CDQdust_day_hour!L7)</f>
+        <f>IF(_speed_day_hour!L7="","",_speed_day_hour!L7)</f>
         <v/>
       </c>
       <c r="O11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M7="","",_CDQdust_day_hour!M7)</f>
+        <f>IF(_speed_day_hour!M7="","",_speed_day_hour!M7)</f>
         <v/>
       </c>
       <c r="P11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N7="","",_CDQdust_day_hour!N7)</f>
+        <f>IF(_speed_day_hour!N7="","",_speed_day_hour!N7)</f>
         <v/>
       </c>
       <c r="Q11" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O7="","",_CDQdust_day_hour!O7)</f>
+        <f>IF(_speed_day_hour!O7="","",_speed_day_hour!O7)</f>
         <v/>
       </c>
       <c r="R11" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P7="","",_CDQdust_day_hour!P7)</f>
+        <f>IF(_speed_day_hour!P7="","",_speed_day_hour!P7)</f>
         <v/>
       </c>
       <c r="S11" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q7="","",_CDQdust_day_hour!Q7)</f>
+        <f>IF(_speed_day_hour!Q7="","",_speed_day_hour!Q7)</f>
         <v/>
       </c>
       <c r="T11" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R7="","",_CDQdust_day_hour!R7)</f>
+        <f>IF(_speed_day_hour!R7="","",_speed_day_hour!R7)</f>
         <v/>
       </c>
       <c r="U11" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S7="","",_CDQdust_day_hour!S7)</f>
+        <f>IF(_speed_day_hour!S7="","",_speed_day_hour!S7)</f>
         <v/>
       </c>
       <c r="V11" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T7="","",_CDQdust_day_hour!T7)</f>
+        <f>IF(_speed_day_hour!T7="","",_speed_day_hour!T7)</f>
         <v/>
       </c>
       <c r="W11" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U7="","",_CDQdust_day_hour!U7)</f>
+        <f>IF(_speed_day_hour!U7="","",_speed_day_hour!U7)</f>
         <v/>
       </c>
     </row>
@@ -3225,87 +3225,87 @@
         <v>0.25</v>
       </c>
       <c r="C12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A8="","",_CDQdust_day_hour!A8)</f>
+        <f>IF(_speed_day_hour!A8="","",_speed_day_hour!A8)</f>
         <v/>
       </c>
       <c r="D12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B8="","",_CDQdust_day_hour!B8)</f>
+        <f>IF(_speed_day_hour!B8="","",_speed_day_hour!B8)</f>
         <v/>
       </c>
       <c r="E12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C8="","",_CDQdust_day_hour!C8)</f>
+        <f>IF(_speed_day_hour!C8="","",_speed_day_hour!C8)</f>
         <v/>
       </c>
       <c r="F12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D8="","",_CDQdust_day_hour!D8)</f>
+        <f>IF(_speed_day_hour!D8="","",_speed_day_hour!D8)</f>
         <v/>
       </c>
       <c r="G12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E8="","",_CDQdust_day_hour!E8)</f>
+        <f>IF(_speed_day_hour!E8="","",_speed_day_hour!E8)</f>
         <v/>
       </c>
       <c r="H12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F8="","",_CDQdust_day_hour!F8)</f>
+        <f>IF(_speed_day_hour!F8="","",_speed_day_hour!F8)</f>
         <v/>
       </c>
       <c r="I12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G8="","",_CDQdust_day_hour!G8)</f>
+        <f>IF(_speed_day_hour!G8="","",_speed_day_hour!G8)</f>
         <v/>
       </c>
       <c r="J12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H8="","",_CDQdust_day_hour!H8)</f>
+        <f>IF(_speed_day_hour!H8="","",_speed_day_hour!H8)</f>
         <v/>
       </c>
       <c r="K12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I8="","",_CDQdust_day_hour!I8)</f>
+        <f>IF(_speed_day_hour!I8="","",_speed_day_hour!I8)</f>
         <v/>
       </c>
       <c r="L12" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J8="","",_CDQdust_day_hour!J8)</f>
+        <f>IF(_speed_day_hour!J8="","",_speed_day_hour!J8)</f>
         <v/>
       </c>
       <c r="M12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K8="","",_CDQdust_day_hour!K8)</f>
+        <f>IF(_speed_day_hour!K8="","",_speed_day_hour!K8)</f>
         <v/>
       </c>
       <c r="N12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L8="","",_CDQdust_day_hour!L8)</f>
+        <f>IF(_speed_day_hour!L8="","",_speed_day_hour!L8)</f>
         <v/>
       </c>
       <c r="O12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M8="","",_CDQdust_day_hour!M8)</f>
+        <f>IF(_speed_day_hour!M8="","",_speed_day_hour!M8)</f>
         <v/>
       </c>
       <c r="P12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N8="","",_CDQdust_day_hour!N8)</f>
+        <f>IF(_speed_day_hour!N8="","",_speed_day_hour!N8)</f>
         <v/>
       </c>
       <c r="Q12" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O8="","",_CDQdust_day_hour!O8)</f>
+        <f>IF(_speed_day_hour!O8="","",_speed_day_hour!O8)</f>
         <v/>
       </c>
       <c r="R12" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P8="","",_CDQdust_day_hour!P8)</f>
+        <f>IF(_speed_day_hour!P8="","",_speed_day_hour!P8)</f>
         <v/>
       </c>
       <c r="S12" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q8="","",_CDQdust_day_hour!Q8)</f>
+        <f>IF(_speed_day_hour!Q8="","",_speed_day_hour!Q8)</f>
         <v/>
       </c>
       <c r="T12" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R8="","",_CDQdust_day_hour!R8)</f>
+        <f>IF(_speed_day_hour!R8="","",_speed_day_hour!R8)</f>
         <v/>
       </c>
       <c r="U12" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S8="","",_CDQdust_day_hour!S8)</f>
+        <f>IF(_speed_day_hour!S8="","",_speed_day_hour!S8)</f>
         <v/>
       </c>
       <c r="V12" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T8="","",_CDQdust_day_hour!T8)</f>
+        <f>IF(_speed_day_hour!T8="","",_speed_day_hour!T8)</f>
         <v/>
       </c>
       <c r="W12" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U8="","",_CDQdust_day_hour!U8)</f>
+        <f>IF(_speed_day_hour!U8="","",_speed_day_hour!U8)</f>
         <v/>
       </c>
     </row>
@@ -3314,87 +3314,87 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A9="","",_CDQdust_day_hour!A9)</f>
+        <f>IF(_speed_day_hour!A9="","",_speed_day_hour!A9)</f>
         <v/>
       </c>
       <c r="D13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B9="","",_CDQdust_day_hour!B9)</f>
+        <f>IF(_speed_day_hour!B9="","",_speed_day_hour!B9)</f>
         <v/>
       </c>
       <c r="E13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C9="","",_CDQdust_day_hour!C9)</f>
+        <f>IF(_speed_day_hour!C9="","",_speed_day_hour!C9)</f>
         <v/>
       </c>
       <c r="F13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D9="","",_CDQdust_day_hour!D9)</f>
+        <f>IF(_speed_day_hour!D9="","",_speed_day_hour!D9)</f>
         <v/>
       </c>
       <c r="G13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E9="","",_CDQdust_day_hour!E9)</f>
+        <f>IF(_speed_day_hour!E9="","",_speed_day_hour!E9)</f>
         <v/>
       </c>
       <c r="H13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F9="","",_CDQdust_day_hour!F9)</f>
+        <f>IF(_speed_day_hour!F9="","",_speed_day_hour!F9)</f>
         <v/>
       </c>
       <c r="I13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G9="","",_CDQdust_day_hour!G9)</f>
+        <f>IF(_speed_day_hour!G9="","",_speed_day_hour!G9)</f>
         <v/>
       </c>
       <c r="J13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H9="","",_CDQdust_day_hour!H9)</f>
+        <f>IF(_speed_day_hour!H9="","",_speed_day_hour!H9)</f>
         <v/>
       </c>
       <c r="K13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I9="","",_CDQdust_day_hour!I9)</f>
+        <f>IF(_speed_day_hour!I9="","",_speed_day_hour!I9)</f>
         <v/>
       </c>
       <c r="L13" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J9="","",_CDQdust_day_hour!J9)</f>
+        <f>IF(_speed_day_hour!J9="","",_speed_day_hour!J9)</f>
         <v/>
       </c>
       <c r="M13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K9="","",_CDQdust_day_hour!K9)</f>
+        <f>IF(_speed_day_hour!K9="","",_speed_day_hour!K9)</f>
         <v/>
       </c>
       <c r="N13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L9="","",_CDQdust_day_hour!L9)</f>
+        <f>IF(_speed_day_hour!L9="","",_speed_day_hour!L9)</f>
         <v/>
       </c>
       <c r="O13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M9="","",_CDQdust_day_hour!M9)</f>
+        <f>IF(_speed_day_hour!M9="","",_speed_day_hour!M9)</f>
         <v/>
       </c>
       <c r="P13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N9="","",_CDQdust_day_hour!N9)</f>
+        <f>IF(_speed_day_hour!N9="","",_speed_day_hour!N9)</f>
         <v/>
       </c>
       <c r="Q13" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O9="","",_CDQdust_day_hour!O9)</f>
+        <f>IF(_speed_day_hour!O9="","",_speed_day_hour!O9)</f>
         <v/>
       </c>
       <c r="R13" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P9="","",_CDQdust_day_hour!P9)</f>
+        <f>IF(_speed_day_hour!P9="","",_speed_day_hour!P9)</f>
         <v/>
       </c>
       <c r="S13" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q9="","",_CDQdust_day_hour!Q9)</f>
+        <f>IF(_speed_day_hour!Q9="","",_speed_day_hour!Q9)</f>
         <v/>
       </c>
       <c r="T13" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R9="","",_CDQdust_day_hour!R9)</f>
+        <f>IF(_speed_day_hour!R9="","",_speed_day_hour!R9)</f>
         <v/>
       </c>
       <c r="U13" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S9="","",_CDQdust_day_hour!S9)</f>
+        <f>IF(_speed_day_hour!S9="","",_speed_day_hour!S9)</f>
         <v/>
       </c>
       <c r="V13" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T9="","",_CDQdust_day_hour!T9)</f>
+        <f>IF(_speed_day_hour!T9="","",_speed_day_hour!T9)</f>
         <v/>
       </c>
       <c r="W13" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U9="","",_CDQdust_day_hour!U9)</f>
+        <f>IF(_speed_day_hour!U9="","",_speed_day_hour!U9)</f>
         <v/>
       </c>
     </row>
@@ -3403,87 +3403,87 @@
         <v>0.333333333333333</v>
       </c>
       <c r="C14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A10="","",_CDQdust_day_hour!A10)</f>
+        <f>IF(_speed_day_hour!A10="","",_speed_day_hour!A10)</f>
         <v/>
       </c>
       <c r="D14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B10="","",_CDQdust_day_hour!B10)</f>
+        <f>IF(_speed_day_hour!B10="","",_speed_day_hour!B10)</f>
         <v/>
       </c>
       <c r="E14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C10="","",_CDQdust_day_hour!C10)</f>
+        <f>IF(_speed_day_hour!C10="","",_speed_day_hour!C10)</f>
         <v/>
       </c>
       <c r="F14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D10="","",_CDQdust_day_hour!D10)</f>
+        <f>IF(_speed_day_hour!D10="","",_speed_day_hour!D10)</f>
         <v/>
       </c>
       <c r="G14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E10="","",_CDQdust_day_hour!E10)</f>
+        <f>IF(_speed_day_hour!E10="","",_speed_day_hour!E10)</f>
         <v/>
       </c>
       <c r="H14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F10="","",_CDQdust_day_hour!F10)</f>
+        <f>IF(_speed_day_hour!F10="","",_speed_day_hour!F10)</f>
         <v/>
       </c>
       <c r="I14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G10="","",_CDQdust_day_hour!G10)</f>
+        <f>IF(_speed_day_hour!G10="","",_speed_day_hour!G10)</f>
         <v/>
       </c>
       <c r="J14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H10="","",_CDQdust_day_hour!H10)</f>
+        <f>IF(_speed_day_hour!H10="","",_speed_day_hour!H10)</f>
         <v/>
       </c>
       <c r="K14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I10="","",_CDQdust_day_hour!I10)</f>
+        <f>IF(_speed_day_hour!I10="","",_speed_day_hour!I10)</f>
         <v/>
       </c>
       <c r="L14" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J10="","",_CDQdust_day_hour!J10)</f>
+        <f>IF(_speed_day_hour!J10="","",_speed_day_hour!J10)</f>
         <v/>
       </c>
       <c r="M14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K10="","",_CDQdust_day_hour!K10)</f>
+        <f>IF(_speed_day_hour!K10="","",_speed_day_hour!K10)</f>
         <v/>
       </c>
       <c r="N14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L10="","",_CDQdust_day_hour!L10)</f>
+        <f>IF(_speed_day_hour!L10="","",_speed_day_hour!L10)</f>
         <v/>
       </c>
       <c r="O14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M10="","",_CDQdust_day_hour!M10)</f>
+        <f>IF(_speed_day_hour!M10="","",_speed_day_hour!M10)</f>
         <v/>
       </c>
       <c r="P14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N10="","",_CDQdust_day_hour!N10)</f>
+        <f>IF(_speed_day_hour!N10="","",_speed_day_hour!N10)</f>
         <v/>
       </c>
       <c r="Q14" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O10="","",_CDQdust_day_hour!O10)</f>
+        <f>IF(_speed_day_hour!O10="","",_speed_day_hour!O10)</f>
         <v/>
       </c>
       <c r="R14" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P10="","",_CDQdust_day_hour!P10)</f>
+        <f>IF(_speed_day_hour!P10="","",_speed_day_hour!P10)</f>
         <v/>
       </c>
       <c r="S14" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q10="","",_CDQdust_day_hour!Q10)</f>
+        <f>IF(_speed_day_hour!Q10="","",_speed_day_hour!Q10)</f>
         <v/>
       </c>
       <c r="T14" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R10="","",_CDQdust_day_hour!R10)</f>
+        <f>IF(_speed_day_hour!R10="","",_speed_day_hour!R10)</f>
         <v/>
       </c>
       <c r="U14" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S10="","",_CDQdust_day_hour!S10)</f>
+        <f>IF(_speed_day_hour!S10="","",_speed_day_hour!S10)</f>
         <v/>
       </c>
       <c r="V14" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T10="","",_CDQdust_day_hour!T10)</f>
+        <f>IF(_speed_day_hour!T10="","",_speed_day_hour!T10)</f>
         <v/>
       </c>
       <c r="W14" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U10="","",_CDQdust_day_hour!U10)</f>
+        <f>IF(_speed_day_hour!U10="","",_speed_day_hour!U10)</f>
         <v/>
       </c>
     </row>
@@ -3492,87 +3492,87 @@
         <v>0.375</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A11="","",_CDQdust_day_hour!A11)</f>
+        <f>IF(_speed_day_hour!A11="","",_speed_day_hour!A11)</f>
         <v/>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B11="","",_CDQdust_day_hour!B11)</f>
+        <f>IF(_speed_day_hour!B11="","",_speed_day_hour!B11)</f>
         <v/>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C11="","",_CDQdust_day_hour!C11)</f>
+        <f>IF(_speed_day_hour!C11="","",_speed_day_hour!C11)</f>
         <v/>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D11="","",_CDQdust_day_hour!D11)</f>
+        <f>IF(_speed_day_hour!D11="","",_speed_day_hour!D11)</f>
         <v/>
       </c>
       <c r="G15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E11="","",_CDQdust_day_hour!E11)</f>
+        <f>IF(_speed_day_hour!E11="","",_speed_day_hour!E11)</f>
         <v/>
       </c>
       <c r="H15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F11="","",_CDQdust_day_hour!F11)</f>
+        <f>IF(_speed_day_hour!F11="","",_speed_day_hour!F11)</f>
         <v/>
       </c>
       <c r="I15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G11="","",_CDQdust_day_hour!G11)</f>
+        <f>IF(_speed_day_hour!G11="","",_speed_day_hour!G11)</f>
         <v/>
       </c>
       <c r="J15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H11="","",_CDQdust_day_hour!H11)</f>
+        <f>IF(_speed_day_hour!H11="","",_speed_day_hour!H11)</f>
         <v/>
       </c>
       <c r="K15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I11="","",_CDQdust_day_hour!I11)</f>
+        <f>IF(_speed_day_hour!I11="","",_speed_day_hour!I11)</f>
         <v/>
       </c>
       <c r="L15" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J11="","",_CDQdust_day_hour!J11)</f>
+        <f>IF(_speed_day_hour!J11="","",_speed_day_hour!J11)</f>
         <v/>
       </c>
       <c r="M15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K11="","",_CDQdust_day_hour!K11)</f>
+        <f>IF(_speed_day_hour!K11="","",_speed_day_hour!K11)</f>
         <v/>
       </c>
       <c r="N15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L11="","",_CDQdust_day_hour!L11)</f>
+        <f>IF(_speed_day_hour!L11="","",_speed_day_hour!L11)</f>
         <v/>
       </c>
       <c r="O15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M11="","",_CDQdust_day_hour!M11)</f>
+        <f>IF(_speed_day_hour!M11="","",_speed_day_hour!M11)</f>
         <v/>
       </c>
       <c r="P15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N11="","",_CDQdust_day_hour!N11)</f>
+        <f>IF(_speed_day_hour!N11="","",_speed_day_hour!N11)</f>
         <v/>
       </c>
       <c r="Q15" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O11="","",_CDQdust_day_hour!O11)</f>
+        <f>IF(_speed_day_hour!O11="","",_speed_day_hour!O11)</f>
         <v/>
       </c>
       <c r="R15" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P11="","",_CDQdust_day_hour!P11)</f>
+        <f>IF(_speed_day_hour!P11="","",_speed_day_hour!P11)</f>
         <v/>
       </c>
       <c r="S15" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q11="","",_CDQdust_day_hour!Q11)</f>
+        <f>IF(_speed_day_hour!Q11="","",_speed_day_hour!Q11)</f>
         <v/>
       </c>
       <c r="T15" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R11="","",_CDQdust_day_hour!R11)</f>
+        <f>IF(_speed_day_hour!R11="","",_speed_day_hour!R11)</f>
         <v/>
       </c>
       <c r="U15" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S11="","",_CDQdust_day_hour!S11)</f>
+        <f>IF(_speed_day_hour!S11="","",_speed_day_hour!S11)</f>
         <v/>
       </c>
       <c r="V15" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T11="","",_CDQdust_day_hour!T11)</f>
+        <f>IF(_speed_day_hour!T11="","",_speed_day_hour!T11)</f>
         <v/>
       </c>
       <c r="W15" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U11="","",_CDQdust_day_hour!U11)</f>
+        <f>IF(_speed_day_hour!U11="","",_speed_day_hour!U11)</f>
         <v/>
       </c>
     </row>
@@ -3581,87 +3581,87 @@
         <v>0.416666666666667</v>
       </c>
       <c r="C16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A12="","",_CDQdust_day_hour!A12)</f>
+        <f>IF(_speed_day_hour!A12="","",_speed_day_hour!A12)</f>
         <v/>
       </c>
       <c r="D16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B12="","",_CDQdust_day_hour!B12)</f>
+        <f>IF(_speed_day_hour!B12="","",_speed_day_hour!B12)</f>
         <v/>
       </c>
       <c r="E16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C12="","",_CDQdust_day_hour!C12)</f>
+        <f>IF(_speed_day_hour!C12="","",_speed_day_hour!C12)</f>
         <v/>
       </c>
       <c r="F16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D12="","",_CDQdust_day_hour!D12)</f>
+        <f>IF(_speed_day_hour!D12="","",_speed_day_hour!D12)</f>
         <v/>
       </c>
       <c r="G16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E12="","",_CDQdust_day_hour!E12)</f>
+        <f>IF(_speed_day_hour!E12="","",_speed_day_hour!E12)</f>
         <v/>
       </c>
       <c r="H16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F12="","",_CDQdust_day_hour!F12)</f>
+        <f>IF(_speed_day_hour!F12="","",_speed_day_hour!F12)</f>
         <v/>
       </c>
       <c r="I16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G12="","",_CDQdust_day_hour!G12)</f>
+        <f>IF(_speed_day_hour!G12="","",_speed_day_hour!G12)</f>
         <v/>
       </c>
       <c r="J16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H12="","",_CDQdust_day_hour!H12)</f>
+        <f>IF(_speed_day_hour!H12="","",_speed_day_hour!H12)</f>
         <v/>
       </c>
       <c r="K16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I12="","",_CDQdust_day_hour!I12)</f>
+        <f>IF(_speed_day_hour!I12="","",_speed_day_hour!I12)</f>
         <v/>
       </c>
       <c r="L16" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J12="","",_CDQdust_day_hour!J12)</f>
+        <f>IF(_speed_day_hour!J12="","",_speed_day_hour!J12)</f>
         <v/>
       </c>
       <c r="M16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K12="","",_CDQdust_day_hour!K12)</f>
+        <f>IF(_speed_day_hour!K12="","",_speed_day_hour!K12)</f>
         <v/>
       </c>
       <c r="N16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L12="","",_CDQdust_day_hour!L12)</f>
+        <f>IF(_speed_day_hour!L12="","",_speed_day_hour!L12)</f>
         <v/>
       </c>
       <c r="O16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M12="","",_CDQdust_day_hour!M12)</f>
+        <f>IF(_speed_day_hour!M12="","",_speed_day_hour!M12)</f>
         <v/>
       </c>
       <c r="P16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N12="","",_CDQdust_day_hour!N12)</f>
+        <f>IF(_speed_day_hour!N12="","",_speed_day_hour!N12)</f>
         <v/>
       </c>
       <c r="Q16" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O12="","",_CDQdust_day_hour!O12)</f>
+        <f>IF(_speed_day_hour!O12="","",_speed_day_hour!O12)</f>
         <v/>
       </c>
       <c r="R16" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P12="","",_CDQdust_day_hour!P12)</f>
+        <f>IF(_speed_day_hour!P12="","",_speed_day_hour!P12)</f>
         <v/>
       </c>
       <c r="S16" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q12="","",_CDQdust_day_hour!Q12)</f>
+        <f>IF(_speed_day_hour!Q12="","",_speed_day_hour!Q12)</f>
         <v/>
       </c>
       <c r="T16" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R12="","",_CDQdust_day_hour!R12)</f>
+        <f>IF(_speed_day_hour!R12="","",_speed_day_hour!R12)</f>
         <v/>
       </c>
       <c r="U16" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S12="","",_CDQdust_day_hour!S12)</f>
+        <f>IF(_speed_day_hour!S12="","",_speed_day_hour!S12)</f>
         <v/>
       </c>
       <c r="V16" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T12="","",_CDQdust_day_hour!T12)</f>
+        <f>IF(_speed_day_hour!T12="","",_speed_day_hour!T12)</f>
         <v/>
       </c>
       <c r="W16" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U12="","",_CDQdust_day_hour!U12)</f>
+        <f>IF(_speed_day_hour!U12="","",_speed_day_hour!U12)</f>
         <v/>
       </c>
     </row>
@@ -3670,87 +3670,87 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!A13="","",_CDQdust_day_hour!A13)</f>
+        <f>IF(_speed_day_hour!A13="","",_speed_day_hour!A13)</f>
         <v/>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!B13="","",_CDQdust_day_hour!B13)</f>
+        <f>IF(_speed_day_hour!B13="","",_speed_day_hour!B13)</f>
         <v/>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!C13="","",_CDQdust_day_hour!C13)</f>
+        <f>IF(_speed_day_hour!C13="","",_speed_day_hour!C13)</f>
         <v/>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!D13="","",_CDQdust_day_hour!D13)</f>
+        <f>IF(_speed_day_hour!D13="","",_speed_day_hour!D13)</f>
         <v/>
       </c>
       <c r="G17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!E13="","",_CDQdust_day_hour!E13)</f>
+        <f>IF(_speed_day_hour!E13="","",_speed_day_hour!E13)</f>
         <v/>
       </c>
       <c r="H17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!F13="","",_CDQdust_day_hour!F13)</f>
+        <f>IF(_speed_day_hour!F13="","",_speed_day_hour!F13)</f>
         <v/>
       </c>
       <c r="I17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!G13="","",_CDQdust_day_hour!G13)</f>
+        <f>IF(_speed_day_hour!G13="","",_speed_day_hour!G13)</f>
         <v/>
       </c>
       <c r="J17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!H13="","",_CDQdust_day_hour!H13)</f>
+        <f>IF(_speed_day_hour!H13="","",_speed_day_hour!H13)</f>
         <v/>
       </c>
       <c r="K17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!I13="","",_CDQdust_day_hour!I13)</f>
+        <f>IF(_speed_day_hour!I13="","",_speed_day_hour!I13)</f>
         <v/>
       </c>
       <c r="L17" s="21" t="str">
-        <f>IF(_CDQdust_day_hour!J13="","",_CDQdust_day_hour!J13)</f>
+        <f>IF(_speed_day_hour!J13="","",_speed_day_hour!J13)</f>
         <v/>
       </c>
       <c r="M17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!K13="","",_CDQdust_day_hour!K13)</f>
+        <f>IF(_speed_day_hour!K13="","",_speed_day_hour!K13)</f>
         <v/>
       </c>
       <c r="N17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!L13="","",_CDQdust_day_hour!L13)</f>
+        <f>IF(_speed_day_hour!L13="","",_speed_day_hour!L13)</f>
         <v/>
       </c>
       <c r="O17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!M13="","",_CDQdust_day_hour!M13)</f>
+        <f>IF(_speed_day_hour!M13="","",_speed_day_hour!M13)</f>
         <v/>
       </c>
       <c r="P17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!N13="","",_CDQdust_day_hour!N13)</f>
+        <f>IF(_speed_day_hour!N13="","",_speed_day_hour!N13)</f>
         <v/>
       </c>
       <c r="Q17" s="31" t="str">
-        <f>IF(_CDQdust_day_hour!O13="","",_CDQdust_day_hour!O13)</f>
+        <f>IF(_speed_day_hour!O13="","",_speed_day_hour!O13)</f>
         <v/>
       </c>
       <c r="R17" s="48" t="str">
-        <f>IF(_CDQdust_day_hour!P13="","",_CDQdust_day_hour!P13)</f>
+        <f>IF(_speed_day_hour!P13="","",_speed_day_hour!P13)</f>
         <v/>
       </c>
       <c r="S17" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!Q13="","",_CDQdust_day_hour!Q13)</f>
+        <f>IF(_speed_day_hour!Q13="","",_speed_day_hour!Q13)</f>
         <v/>
       </c>
       <c r="T17" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R13="","",_CDQdust_day_hour!R13)</f>
+        <f>IF(_speed_day_hour!R13="","",_speed_day_hour!R13)</f>
         <v/>
       </c>
       <c r="U17" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S13="","",_CDQdust_day_hour!S13)</f>
+        <f>IF(_speed_day_hour!S13="","",_speed_day_hour!S13)</f>
         <v/>
       </c>
       <c r="V17" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T13="","",_CDQdust_day_hour!T13)</f>
+        <f>IF(_speed_day_hour!T13="","",_speed_day_hour!T13)</f>
         <v/>
       </c>
       <c r="W17" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U13="","",_CDQdust_day_hour!U13)</f>
+        <f>IF(_speed_day_hour!U13="","",_speed_day_hour!U13)</f>
         <v/>
       </c>
     </row>
@@ -3759,87 +3759,87 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A14="","",_CDQdust_day_hour!A14)</f>
+        <f>IF(_speed_day_hour!A14="","",_speed_day_hour!A14)</f>
         <v/>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B14="","",_CDQdust_day_hour!B14)</f>
+        <f>IF(_speed_day_hour!B14="","",_speed_day_hour!B14)</f>
         <v/>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C14="","",_CDQdust_day_hour!C14)</f>
+        <f>IF(_speed_day_hour!C14="","",_speed_day_hour!C14)</f>
         <v/>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D14="","",_CDQdust_day_hour!D14)</f>
+        <f>IF(_speed_day_hour!D14="","",_speed_day_hour!D14)</f>
         <v/>
       </c>
       <c r="G18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E14="","",_CDQdust_day_hour!E14)</f>
+        <f>IF(_speed_day_hour!E14="","",_speed_day_hour!E14)</f>
         <v/>
       </c>
       <c r="H18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F14="","",_CDQdust_day_hour!F14)</f>
+        <f>IF(_speed_day_hour!F14="","",_speed_day_hour!F14)</f>
         <v/>
       </c>
       <c r="I18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G14="","",_CDQdust_day_hour!G14)</f>
+        <f>IF(_speed_day_hour!G14="","",_speed_day_hour!G14)</f>
         <v/>
       </c>
       <c r="J18" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H14="","",_CDQdust_day_hour!H14)</f>
+        <f>IF(_speed_day_hour!H14="","",_speed_day_hour!H14)</f>
         <v/>
       </c>
       <c r="K18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I14="","",_CDQdust_day_hour!I14)</f>
+        <f>IF(_speed_day_hour!I14="","",_speed_day_hour!I14)</f>
         <v/>
       </c>
       <c r="L18" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J14="","",_CDQdust_day_hour!J14)</f>
+        <f>IF(_speed_day_hour!J14="","",_speed_day_hour!J14)</f>
         <v/>
       </c>
       <c r="M18" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K14="","",_CDQdust_day_hour!K14)</f>
+        <f>IF(_speed_day_hour!K14="","",_speed_day_hour!K14)</f>
         <v/>
       </c>
       <c r="N18" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L14="","",_CDQdust_day_hour!L14)</f>
+        <f>IF(_speed_day_hour!L14="","",_speed_day_hour!L14)</f>
         <v/>
       </c>
       <c r="O18" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M14="","",_CDQdust_day_hour!M14)</f>
+        <f>IF(_speed_day_hour!M14="","",_speed_day_hour!M14)</f>
         <v/>
       </c>
       <c r="P18" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N14="","",_CDQdust_day_hour!N14)</f>
+        <f>IF(_speed_day_hour!N14="","",_speed_day_hour!N14)</f>
         <v/>
       </c>
       <c r="Q18" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O14="","",_CDQdust_day_hour!O14)</f>
+        <f>IF(_speed_day_hour!O14="","",_speed_day_hour!O14)</f>
         <v/>
       </c>
       <c r="R18" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P14="","",_CDQdust_day_hour!P14)</f>
+        <f>IF(_speed_day_hour!P14="","",_speed_day_hour!P14)</f>
         <v/>
       </c>
       <c r="S18" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q14="","",_CDQdust_day_hour!Q14)</f>
+        <f>IF(_speed_day_hour!Q14="","",_speed_day_hour!Q14)</f>
         <v/>
       </c>
       <c r="T18" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R14="","",_CDQdust_day_hour!R14)</f>
+        <f>IF(_speed_day_hour!R14="","",_speed_day_hour!R14)</f>
         <v/>
       </c>
       <c r="U18" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S14="","",_CDQdust_day_hour!S14)</f>
+        <f>IF(_speed_day_hour!S14="","",_speed_day_hour!S14)</f>
         <v/>
       </c>
       <c r="V18" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T14="","",_CDQdust_day_hour!T14)</f>
+        <f>IF(_speed_day_hour!T14="","",_speed_day_hour!T14)</f>
         <v/>
       </c>
       <c r="W18" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U14="","",_CDQdust_day_hour!U14)</f>
+        <f>IF(_speed_day_hour!U14="","",_speed_day_hour!U14)</f>
         <v/>
       </c>
     </row>
@@ -3848,87 +3848,87 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A15="","",_CDQdust_day_hour!A15)</f>
+        <f>IF(_speed_day_hour!A15="","",_speed_day_hour!A15)</f>
         <v/>
       </c>
       <c r="D19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B15="","",_CDQdust_day_hour!B15)</f>
+        <f>IF(_speed_day_hour!B15="","",_speed_day_hour!B15)</f>
         <v/>
       </c>
       <c r="E19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C15="","",_CDQdust_day_hour!C15)</f>
+        <f>IF(_speed_day_hour!C15="","",_speed_day_hour!C15)</f>
         <v/>
       </c>
       <c r="F19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D15="","",_CDQdust_day_hour!D15)</f>
+        <f>IF(_speed_day_hour!D15="","",_speed_day_hour!D15)</f>
         <v/>
       </c>
       <c r="G19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E15="","",_CDQdust_day_hour!E15)</f>
+        <f>IF(_speed_day_hour!E15="","",_speed_day_hour!E15)</f>
         <v/>
       </c>
       <c r="H19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F15="","",_CDQdust_day_hour!F15)</f>
+        <f>IF(_speed_day_hour!F15="","",_speed_day_hour!F15)</f>
         <v/>
       </c>
       <c r="I19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G15="","",_CDQdust_day_hour!G15)</f>
+        <f>IF(_speed_day_hour!G15="","",_speed_day_hour!G15)</f>
         <v/>
       </c>
       <c r="J19" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H15="","",_CDQdust_day_hour!H15)</f>
+        <f>IF(_speed_day_hour!H15="","",_speed_day_hour!H15)</f>
         <v/>
       </c>
       <c r="K19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I15="","",_CDQdust_day_hour!I15)</f>
+        <f>IF(_speed_day_hour!I15="","",_speed_day_hour!I15)</f>
         <v/>
       </c>
       <c r="L19" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J15="","",_CDQdust_day_hour!J15)</f>
+        <f>IF(_speed_day_hour!J15="","",_speed_day_hour!J15)</f>
         <v/>
       </c>
       <c r="M19" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K15="","",_CDQdust_day_hour!K15)</f>
+        <f>IF(_speed_day_hour!K15="","",_speed_day_hour!K15)</f>
         <v/>
       </c>
       <c r="N19" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L15="","",_CDQdust_day_hour!L15)</f>
+        <f>IF(_speed_day_hour!L15="","",_speed_day_hour!L15)</f>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M15="","",_CDQdust_day_hour!M15)</f>
+        <f>IF(_speed_day_hour!M15="","",_speed_day_hour!M15)</f>
         <v/>
       </c>
       <c r="P19" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N15="","",_CDQdust_day_hour!N15)</f>
+        <f>IF(_speed_day_hour!N15="","",_speed_day_hour!N15)</f>
         <v/>
       </c>
       <c r="Q19" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O15="","",_CDQdust_day_hour!O15)</f>
+        <f>IF(_speed_day_hour!O15="","",_speed_day_hour!O15)</f>
         <v/>
       </c>
       <c r="R19" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P15="","",_CDQdust_day_hour!P15)</f>
+        <f>IF(_speed_day_hour!P15="","",_speed_day_hour!P15)</f>
         <v/>
       </c>
       <c r="S19" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q15="","",_CDQdust_day_hour!Q15)</f>
+        <f>IF(_speed_day_hour!Q15="","",_speed_day_hour!Q15)</f>
         <v/>
       </c>
       <c r="T19" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R15="","",_CDQdust_day_hour!R15)</f>
+        <f>IF(_speed_day_hour!R15="","",_speed_day_hour!R15)</f>
         <v/>
       </c>
       <c r="U19" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S15="","",_CDQdust_day_hour!S15)</f>
+        <f>IF(_speed_day_hour!S15="","",_speed_day_hour!S15)</f>
         <v/>
       </c>
       <c r="V19" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T15="","",_CDQdust_day_hour!T15)</f>
+        <f>IF(_speed_day_hour!T15="","",_speed_day_hour!T15)</f>
         <v/>
       </c>
       <c r="W19" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U15="","",_CDQdust_day_hour!U15)</f>
+        <f>IF(_speed_day_hour!U15="","",_speed_day_hour!U15)</f>
         <v/>
       </c>
     </row>
@@ -3937,87 +3937,87 @@
         <v>0.583333333333333</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A16="","",_CDQdust_day_hour!A16)</f>
+        <f>IF(_speed_day_hour!A16="","",_speed_day_hour!A16)</f>
         <v/>
       </c>
       <c r="D20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B16="","",_CDQdust_day_hour!B16)</f>
+        <f>IF(_speed_day_hour!B16="","",_speed_day_hour!B16)</f>
         <v/>
       </c>
       <c r="E20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C16="","",_CDQdust_day_hour!C16)</f>
+        <f>IF(_speed_day_hour!C16="","",_speed_day_hour!C16)</f>
         <v/>
       </c>
       <c r="F20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D16="","",_CDQdust_day_hour!D16)</f>
+        <f>IF(_speed_day_hour!D16="","",_speed_day_hour!D16)</f>
         <v/>
       </c>
       <c r="G20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E16="","",_CDQdust_day_hour!E16)</f>
+        <f>IF(_speed_day_hour!E16="","",_speed_day_hour!E16)</f>
         <v/>
       </c>
       <c r="H20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F16="","",_CDQdust_day_hour!F16)</f>
+        <f>IF(_speed_day_hour!F16="","",_speed_day_hour!F16)</f>
         <v/>
       </c>
       <c r="I20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G16="","",_CDQdust_day_hour!G16)</f>
+        <f>IF(_speed_day_hour!G16="","",_speed_day_hour!G16)</f>
         <v/>
       </c>
       <c r="J20" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H16="","",_CDQdust_day_hour!H16)</f>
+        <f>IF(_speed_day_hour!H16="","",_speed_day_hour!H16)</f>
         <v/>
       </c>
       <c r="K20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I16="","",_CDQdust_day_hour!I16)</f>
+        <f>IF(_speed_day_hour!I16="","",_speed_day_hour!I16)</f>
         <v/>
       </c>
       <c r="L20" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J16="","",_CDQdust_day_hour!J16)</f>
+        <f>IF(_speed_day_hour!J16="","",_speed_day_hour!J16)</f>
         <v/>
       </c>
       <c r="M20" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K16="","",_CDQdust_day_hour!K16)</f>
+        <f>IF(_speed_day_hour!K16="","",_speed_day_hour!K16)</f>
         <v/>
       </c>
       <c r="N20" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L16="","",_CDQdust_day_hour!L16)</f>
+        <f>IF(_speed_day_hour!L16="","",_speed_day_hour!L16)</f>
         <v/>
       </c>
       <c r="O20" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M16="","",_CDQdust_day_hour!M16)</f>
+        <f>IF(_speed_day_hour!M16="","",_speed_day_hour!M16)</f>
         <v/>
       </c>
       <c r="P20" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N16="","",_CDQdust_day_hour!N16)</f>
+        <f>IF(_speed_day_hour!N16="","",_speed_day_hour!N16)</f>
         <v/>
       </c>
       <c r="Q20" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O16="","",_CDQdust_day_hour!O16)</f>
+        <f>IF(_speed_day_hour!O16="","",_speed_day_hour!O16)</f>
         <v/>
       </c>
       <c r="R20" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P16="","",_CDQdust_day_hour!P16)</f>
+        <f>IF(_speed_day_hour!P16="","",_speed_day_hour!P16)</f>
         <v/>
       </c>
       <c r="S20" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q16="","",_CDQdust_day_hour!Q16)</f>
+        <f>IF(_speed_day_hour!Q16="","",_speed_day_hour!Q16)</f>
         <v/>
       </c>
       <c r="T20" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R16="","",_CDQdust_day_hour!R16)</f>
+        <f>IF(_speed_day_hour!R16="","",_speed_day_hour!R16)</f>
         <v/>
       </c>
       <c r="U20" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S16="","",_CDQdust_day_hour!S16)</f>
+        <f>IF(_speed_day_hour!S16="","",_speed_day_hour!S16)</f>
         <v/>
       </c>
       <c r="V20" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T16="","",_CDQdust_day_hour!T16)</f>
+        <f>IF(_speed_day_hour!T16="","",_speed_day_hour!T16)</f>
         <v/>
       </c>
       <c r="W20" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U16="","",_CDQdust_day_hour!U16)</f>
+        <f>IF(_speed_day_hour!U16="","",_speed_day_hour!U16)</f>
         <v/>
       </c>
     </row>
@@ -4026,87 +4026,87 @@
         <v>0.625</v>
       </c>
       <c r="C21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A17="","",_CDQdust_day_hour!A17)</f>
+        <f>IF(_speed_day_hour!A17="","",_speed_day_hour!A17)</f>
         <v/>
       </c>
       <c r="D21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B17="","",_CDQdust_day_hour!B17)</f>
+        <f>IF(_speed_day_hour!B17="","",_speed_day_hour!B17)</f>
         <v/>
       </c>
       <c r="E21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C17="","",_CDQdust_day_hour!C17)</f>
+        <f>IF(_speed_day_hour!C17="","",_speed_day_hour!C17)</f>
         <v/>
       </c>
       <c r="F21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D17="","",_CDQdust_day_hour!D17)</f>
+        <f>IF(_speed_day_hour!D17="","",_speed_day_hour!D17)</f>
         <v/>
       </c>
       <c r="G21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E17="","",_CDQdust_day_hour!E17)</f>
+        <f>IF(_speed_day_hour!E17="","",_speed_day_hour!E17)</f>
         <v/>
       </c>
       <c r="H21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F17="","",_CDQdust_day_hour!F17)</f>
+        <f>IF(_speed_day_hour!F17="","",_speed_day_hour!F17)</f>
         <v/>
       </c>
       <c r="I21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G17="","",_CDQdust_day_hour!G17)</f>
+        <f>IF(_speed_day_hour!G17="","",_speed_day_hour!G17)</f>
         <v/>
       </c>
       <c r="J21" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H17="","",_CDQdust_day_hour!H17)</f>
+        <f>IF(_speed_day_hour!H17="","",_speed_day_hour!H17)</f>
         <v/>
       </c>
       <c r="K21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I17="","",_CDQdust_day_hour!I17)</f>
+        <f>IF(_speed_day_hour!I17="","",_speed_day_hour!I17)</f>
         <v/>
       </c>
       <c r="L21" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J17="","",_CDQdust_day_hour!J17)</f>
+        <f>IF(_speed_day_hour!J17="","",_speed_day_hour!J17)</f>
         <v/>
       </c>
       <c r="M21" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K17="","",_CDQdust_day_hour!K17)</f>
+        <f>IF(_speed_day_hour!K17="","",_speed_day_hour!K17)</f>
         <v/>
       </c>
       <c r="N21" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L17="","",_CDQdust_day_hour!L17)</f>
+        <f>IF(_speed_day_hour!L17="","",_speed_day_hour!L17)</f>
         <v/>
       </c>
       <c r="O21" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M17="","",_CDQdust_day_hour!M17)</f>
+        <f>IF(_speed_day_hour!M17="","",_speed_day_hour!M17)</f>
         <v/>
       </c>
       <c r="P21" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N17="","",_CDQdust_day_hour!N17)</f>
+        <f>IF(_speed_day_hour!N17="","",_speed_day_hour!N17)</f>
         <v/>
       </c>
       <c r="Q21" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O17="","",_CDQdust_day_hour!O17)</f>
+        <f>IF(_speed_day_hour!O17="","",_speed_day_hour!O17)</f>
         <v/>
       </c>
       <c r="R21" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P17="","",_CDQdust_day_hour!P17)</f>
+        <f>IF(_speed_day_hour!P17="","",_speed_day_hour!P17)</f>
         <v/>
       </c>
       <c r="S21" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q17="","",_CDQdust_day_hour!Q17)</f>
+        <f>IF(_speed_day_hour!Q17="","",_speed_day_hour!Q17)</f>
         <v/>
       </c>
       <c r="T21" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R17="","",_CDQdust_day_hour!R17)</f>
+        <f>IF(_speed_day_hour!R17="","",_speed_day_hour!R17)</f>
         <v/>
       </c>
       <c r="U21" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S17="","",_CDQdust_day_hour!S17)</f>
+        <f>IF(_speed_day_hour!S17="","",_speed_day_hour!S17)</f>
         <v/>
       </c>
       <c r="V21" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T17="","",_CDQdust_day_hour!T17)</f>
+        <f>IF(_speed_day_hour!T17="","",_speed_day_hour!T17)</f>
         <v/>
       </c>
       <c r="W21" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U17="","",_CDQdust_day_hour!U17)</f>
+        <f>IF(_speed_day_hour!U17="","",_speed_day_hour!U17)</f>
         <v/>
       </c>
     </row>
@@ -4115,87 +4115,87 @@
         <v>0.666666666666667</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A18="","",_CDQdust_day_hour!A18)</f>
+        <f>IF(_speed_day_hour!A18="","",_speed_day_hour!A18)</f>
         <v/>
       </c>
       <c r="D22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B18="","",_CDQdust_day_hour!B18)</f>
+        <f>IF(_speed_day_hour!B18="","",_speed_day_hour!B18)</f>
         <v/>
       </c>
       <c r="E22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C18="","",_CDQdust_day_hour!C18)</f>
+        <f>IF(_speed_day_hour!C18="","",_speed_day_hour!C18)</f>
         <v/>
       </c>
       <c r="F22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D18="","",_CDQdust_day_hour!D18)</f>
+        <f>IF(_speed_day_hour!D18="","",_speed_day_hour!D18)</f>
         <v/>
       </c>
       <c r="G22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E18="","",_CDQdust_day_hour!E18)</f>
+        <f>IF(_speed_day_hour!E18="","",_speed_day_hour!E18)</f>
         <v/>
       </c>
       <c r="H22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F18="","",_CDQdust_day_hour!F18)</f>
+        <f>IF(_speed_day_hour!F18="","",_speed_day_hour!F18)</f>
         <v/>
       </c>
       <c r="I22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G18="","",_CDQdust_day_hour!G18)</f>
+        <f>IF(_speed_day_hour!G18="","",_speed_day_hour!G18)</f>
         <v/>
       </c>
       <c r="J22" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H18="","",_CDQdust_day_hour!H18)</f>
+        <f>IF(_speed_day_hour!H18="","",_speed_day_hour!H18)</f>
         <v/>
       </c>
       <c r="K22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I18="","",_CDQdust_day_hour!I18)</f>
+        <f>IF(_speed_day_hour!I18="","",_speed_day_hour!I18)</f>
         <v/>
       </c>
       <c r="L22" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J18="","",_CDQdust_day_hour!J18)</f>
+        <f>IF(_speed_day_hour!J18="","",_speed_day_hour!J18)</f>
         <v/>
       </c>
       <c r="M22" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K18="","",_CDQdust_day_hour!K18)</f>
+        <f>IF(_speed_day_hour!K18="","",_speed_day_hour!K18)</f>
         <v/>
       </c>
       <c r="N22" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L18="","",_CDQdust_day_hour!L18)</f>
+        <f>IF(_speed_day_hour!L18="","",_speed_day_hour!L18)</f>
         <v/>
       </c>
       <c r="O22" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M18="","",_CDQdust_day_hour!M18)</f>
+        <f>IF(_speed_day_hour!M18="","",_speed_day_hour!M18)</f>
         <v/>
       </c>
       <c r="P22" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N18="","",_CDQdust_day_hour!N18)</f>
+        <f>IF(_speed_day_hour!N18="","",_speed_day_hour!N18)</f>
         <v/>
       </c>
       <c r="Q22" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O18="","",_CDQdust_day_hour!O18)</f>
+        <f>IF(_speed_day_hour!O18="","",_speed_day_hour!O18)</f>
         <v/>
       </c>
       <c r="R22" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P18="","",_CDQdust_day_hour!P18)</f>
+        <f>IF(_speed_day_hour!P18="","",_speed_day_hour!P18)</f>
         <v/>
       </c>
       <c r="S22" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q18="","",_CDQdust_day_hour!Q18)</f>
+        <f>IF(_speed_day_hour!Q18="","",_speed_day_hour!Q18)</f>
         <v/>
       </c>
       <c r="T22" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R18="","",_CDQdust_day_hour!R18)</f>
+        <f>IF(_speed_day_hour!R18="","",_speed_day_hour!R18)</f>
         <v/>
       </c>
       <c r="U22" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S18="","",_CDQdust_day_hour!S18)</f>
+        <f>IF(_speed_day_hour!S18="","",_speed_day_hour!S18)</f>
         <v/>
       </c>
       <c r="V22" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T18="","",_CDQdust_day_hour!T18)</f>
+        <f>IF(_speed_day_hour!T18="","",_speed_day_hour!T18)</f>
         <v/>
       </c>
       <c r="W22" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U18="","",_CDQdust_day_hour!U18)</f>
+        <f>IF(_speed_day_hour!U18="","",_speed_day_hour!U18)</f>
         <v/>
       </c>
     </row>
@@ -4204,87 +4204,87 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A19="","",_CDQdust_day_hour!A19)</f>
+        <f>IF(_speed_day_hour!A19="","",_speed_day_hour!A19)</f>
         <v/>
       </c>
       <c r="D23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B19="","",_CDQdust_day_hour!B19)</f>
+        <f>IF(_speed_day_hour!B19="","",_speed_day_hour!B19)</f>
         <v/>
       </c>
       <c r="E23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C19="","",_CDQdust_day_hour!C19)</f>
+        <f>IF(_speed_day_hour!C19="","",_speed_day_hour!C19)</f>
         <v/>
       </c>
       <c r="F23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D19="","",_CDQdust_day_hour!D19)</f>
+        <f>IF(_speed_day_hour!D19="","",_speed_day_hour!D19)</f>
         <v/>
       </c>
       <c r="G23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E19="","",_CDQdust_day_hour!E19)</f>
+        <f>IF(_speed_day_hour!E19="","",_speed_day_hour!E19)</f>
         <v/>
       </c>
       <c r="H23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F19="","",_CDQdust_day_hour!F19)</f>
+        <f>IF(_speed_day_hour!F19="","",_speed_day_hour!F19)</f>
         <v/>
       </c>
       <c r="I23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G19="","",_CDQdust_day_hour!G19)</f>
+        <f>IF(_speed_day_hour!G19="","",_speed_day_hour!G19)</f>
         <v/>
       </c>
       <c r="J23" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H19="","",_CDQdust_day_hour!H19)</f>
+        <f>IF(_speed_day_hour!H19="","",_speed_day_hour!H19)</f>
         <v/>
       </c>
       <c r="K23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I19="","",_CDQdust_day_hour!I19)</f>
+        <f>IF(_speed_day_hour!I19="","",_speed_day_hour!I19)</f>
         <v/>
       </c>
       <c r="L23" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J19="","",_CDQdust_day_hour!J19)</f>
+        <f>IF(_speed_day_hour!J19="","",_speed_day_hour!J19)</f>
         <v/>
       </c>
       <c r="M23" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K19="","",_CDQdust_day_hour!K19)</f>
+        <f>IF(_speed_day_hour!K19="","",_speed_day_hour!K19)</f>
         <v/>
       </c>
       <c r="N23" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L19="","",_CDQdust_day_hour!L19)</f>
+        <f>IF(_speed_day_hour!L19="","",_speed_day_hour!L19)</f>
         <v/>
       </c>
       <c r="O23" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M19="","",_CDQdust_day_hour!M19)</f>
+        <f>IF(_speed_day_hour!M19="","",_speed_day_hour!M19)</f>
         <v/>
       </c>
       <c r="P23" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N19="","",_CDQdust_day_hour!N19)</f>
+        <f>IF(_speed_day_hour!N19="","",_speed_day_hour!N19)</f>
         <v/>
       </c>
       <c r="Q23" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O19="","",_CDQdust_day_hour!O19)</f>
+        <f>IF(_speed_day_hour!O19="","",_speed_day_hour!O19)</f>
         <v/>
       </c>
       <c r="R23" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P19="","",_CDQdust_day_hour!P19)</f>
+        <f>IF(_speed_day_hour!P19="","",_speed_day_hour!P19)</f>
         <v/>
       </c>
       <c r="S23" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q19="","",_CDQdust_day_hour!Q19)</f>
+        <f>IF(_speed_day_hour!Q19="","",_speed_day_hour!Q19)</f>
         <v/>
       </c>
       <c r="T23" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R19="","",_CDQdust_day_hour!R19)</f>
+        <f>IF(_speed_day_hour!R19="","",_speed_day_hour!R19)</f>
         <v/>
       </c>
       <c r="U23" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S19="","",_CDQdust_day_hour!S19)</f>
+        <f>IF(_speed_day_hour!S19="","",_speed_day_hour!S19)</f>
         <v/>
       </c>
       <c r="V23" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T19="","",_CDQdust_day_hour!T19)</f>
+        <f>IF(_speed_day_hour!T19="","",_speed_day_hour!T19)</f>
         <v/>
       </c>
       <c r="W23" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U19="","",_CDQdust_day_hour!U19)</f>
+        <f>IF(_speed_day_hour!U19="","",_speed_day_hour!U19)</f>
         <v/>
       </c>
     </row>
@@ -4293,87 +4293,87 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A20="","",_CDQdust_day_hour!A20)</f>
+        <f>IF(_speed_day_hour!A20="","",_speed_day_hour!A20)</f>
         <v/>
       </c>
       <c r="D24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B20="","",_CDQdust_day_hour!B20)</f>
+        <f>IF(_speed_day_hour!B20="","",_speed_day_hour!B20)</f>
         <v/>
       </c>
       <c r="E24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C20="","",_CDQdust_day_hour!C20)</f>
+        <f>IF(_speed_day_hour!C20="","",_speed_day_hour!C20)</f>
         <v/>
       </c>
       <c r="F24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D20="","",_CDQdust_day_hour!D20)</f>
+        <f>IF(_speed_day_hour!D20="","",_speed_day_hour!D20)</f>
         <v/>
       </c>
       <c r="G24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E20="","",_CDQdust_day_hour!E20)</f>
+        <f>IF(_speed_day_hour!E20="","",_speed_day_hour!E20)</f>
         <v/>
       </c>
       <c r="H24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F20="","",_CDQdust_day_hour!F20)</f>
+        <f>IF(_speed_day_hour!F20="","",_speed_day_hour!F20)</f>
         <v/>
       </c>
       <c r="I24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G20="","",_CDQdust_day_hour!G20)</f>
+        <f>IF(_speed_day_hour!G20="","",_speed_day_hour!G20)</f>
         <v/>
       </c>
       <c r="J24" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H20="","",_CDQdust_day_hour!H20)</f>
+        <f>IF(_speed_day_hour!H20="","",_speed_day_hour!H20)</f>
         <v/>
       </c>
       <c r="K24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I20="","",_CDQdust_day_hour!I20)</f>
+        <f>IF(_speed_day_hour!I20="","",_speed_day_hour!I20)</f>
         <v/>
       </c>
       <c r="L24" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J20="","",_CDQdust_day_hour!J20)</f>
+        <f>IF(_speed_day_hour!J20="","",_speed_day_hour!J20)</f>
         <v/>
       </c>
       <c r="M24" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K20="","",_CDQdust_day_hour!K20)</f>
+        <f>IF(_speed_day_hour!K20="","",_speed_day_hour!K20)</f>
         <v/>
       </c>
       <c r="N24" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L20="","",_CDQdust_day_hour!L20)</f>
+        <f>IF(_speed_day_hour!L20="","",_speed_day_hour!L20)</f>
         <v/>
       </c>
       <c r="O24" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M20="","",_CDQdust_day_hour!M20)</f>
+        <f>IF(_speed_day_hour!M20="","",_speed_day_hour!M20)</f>
         <v/>
       </c>
       <c r="P24" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N20="","",_CDQdust_day_hour!N20)</f>
+        <f>IF(_speed_day_hour!N20="","",_speed_day_hour!N20)</f>
         <v/>
       </c>
       <c r="Q24" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O20="","",_CDQdust_day_hour!O20)</f>
+        <f>IF(_speed_day_hour!O20="","",_speed_day_hour!O20)</f>
         <v/>
       </c>
       <c r="R24" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P20="","",_CDQdust_day_hour!P20)</f>
+        <f>IF(_speed_day_hour!P20="","",_speed_day_hour!P20)</f>
         <v/>
       </c>
       <c r="S24" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q20="","",_CDQdust_day_hour!Q20)</f>
+        <f>IF(_speed_day_hour!Q20="","",_speed_day_hour!Q20)</f>
         <v/>
       </c>
       <c r="T24" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R20="","",_CDQdust_day_hour!R20)</f>
+        <f>IF(_speed_day_hour!R20="","",_speed_day_hour!R20)</f>
         <v/>
       </c>
       <c r="U24" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S20="","",_CDQdust_day_hour!S20)</f>
+        <f>IF(_speed_day_hour!S20="","",_speed_day_hour!S20)</f>
         <v/>
       </c>
       <c r="V24" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T20="","",_CDQdust_day_hour!T20)</f>
+        <f>IF(_speed_day_hour!T20="","",_speed_day_hour!T20)</f>
         <v/>
       </c>
       <c r="W24" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U20="","",_CDQdust_day_hour!U20)</f>
+        <f>IF(_speed_day_hour!U20="","",_speed_day_hour!U20)</f>
         <v/>
       </c>
     </row>
@@ -4382,87 +4382,87 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A21="","",_CDQdust_day_hour!A21)</f>
+        <f>IF(_speed_day_hour!A21="","",_speed_day_hour!A21)</f>
         <v/>
       </c>
       <c r="D25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B21="","",_CDQdust_day_hour!B21)</f>
+        <f>IF(_speed_day_hour!B21="","",_speed_day_hour!B21)</f>
         <v/>
       </c>
       <c r="E25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C21="","",_CDQdust_day_hour!C21)</f>
+        <f>IF(_speed_day_hour!C21="","",_speed_day_hour!C21)</f>
         <v/>
       </c>
       <c r="F25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D21="","",_CDQdust_day_hour!D21)</f>
+        <f>IF(_speed_day_hour!D21="","",_speed_day_hour!D21)</f>
         <v/>
       </c>
       <c r="G25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E21="","",_CDQdust_day_hour!E21)</f>
+        <f>IF(_speed_day_hour!E21="","",_speed_day_hour!E21)</f>
         <v/>
       </c>
       <c r="H25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F21="","",_CDQdust_day_hour!F21)</f>
+        <f>IF(_speed_day_hour!F21="","",_speed_day_hour!F21)</f>
         <v/>
       </c>
       <c r="I25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G21="","",_CDQdust_day_hour!G21)</f>
+        <f>IF(_speed_day_hour!G21="","",_speed_day_hour!G21)</f>
         <v/>
       </c>
       <c r="J25" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H21="","",_CDQdust_day_hour!H21)</f>
+        <f>IF(_speed_day_hour!H21="","",_speed_day_hour!H21)</f>
         <v/>
       </c>
       <c r="K25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I21="","",_CDQdust_day_hour!I21)</f>
+        <f>IF(_speed_day_hour!I21="","",_speed_day_hour!I21)</f>
         <v/>
       </c>
       <c r="L25" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J21="","",_CDQdust_day_hour!J21)</f>
+        <f>IF(_speed_day_hour!J21="","",_speed_day_hour!J21)</f>
         <v/>
       </c>
       <c r="M25" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K21="","",_CDQdust_day_hour!K21)</f>
+        <f>IF(_speed_day_hour!K21="","",_speed_day_hour!K21)</f>
         <v/>
       </c>
       <c r="N25" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L21="","",_CDQdust_day_hour!L21)</f>
+        <f>IF(_speed_day_hour!L21="","",_speed_day_hour!L21)</f>
         <v/>
       </c>
       <c r="O25" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M21="","",_CDQdust_day_hour!M21)</f>
+        <f>IF(_speed_day_hour!M21="","",_speed_day_hour!M21)</f>
         <v/>
       </c>
       <c r="P25" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N21="","",_CDQdust_day_hour!N21)</f>
+        <f>IF(_speed_day_hour!N21="","",_speed_day_hour!N21)</f>
         <v/>
       </c>
       <c r="Q25" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O21="","",_CDQdust_day_hour!O21)</f>
+        <f>IF(_speed_day_hour!O21="","",_speed_day_hour!O21)</f>
         <v/>
       </c>
       <c r="R25" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P21="","",_CDQdust_day_hour!P21)</f>
+        <f>IF(_speed_day_hour!P21="","",_speed_day_hour!P21)</f>
         <v/>
       </c>
       <c r="S25" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q21="","",_CDQdust_day_hour!Q21)</f>
+        <f>IF(_speed_day_hour!Q21="","",_speed_day_hour!Q21)</f>
         <v/>
       </c>
       <c r="T25" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R21="","",_CDQdust_day_hour!R21)</f>
+        <f>IF(_speed_day_hour!R21="","",_speed_day_hour!R21)</f>
         <v/>
       </c>
       <c r="U25" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S21="","",_CDQdust_day_hour!S21)</f>
+        <f>IF(_speed_day_hour!S21="","",_speed_day_hour!S21)</f>
         <v/>
       </c>
       <c r="V25" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T21="","",_CDQdust_day_hour!T21)</f>
+        <f>IF(_speed_day_hour!T21="","",_speed_day_hour!T21)</f>
         <v/>
       </c>
       <c r="W25" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U21="","",_CDQdust_day_hour!U21)</f>
+        <f>IF(_speed_day_hour!U21="","",_speed_day_hour!U21)</f>
         <v/>
       </c>
     </row>
@@ -4471,87 +4471,87 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A22="","",_CDQdust_day_hour!A22)</f>
+        <f>IF(_speed_day_hour!A22="","",_speed_day_hour!A22)</f>
         <v/>
       </c>
       <c r="D26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B22="","",_CDQdust_day_hour!B22)</f>
+        <f>IF(_speed_day_hour!B22="","",_speed_day_hour!B22)</f>
         <v/>
       </c>
       <c r="E26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C22="","",_CDQdust_day_hour!C22)</f>
+        <f>IF(_speed_day_hour!C22="","",_speed_day_hour!C22)</f>
         <v/>
       </c>
       <c r="F26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D22="","",_CDQdust_day_hour!D22)</f>
+        <f>IF(_speed_day_hour!D22="","",_speed_day_hour!D22)</f>
         <v/>
       </c>
       <c r="G26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E22="","",_CDQdust_day_hour!E22)</f>
+        <f>IF(_speed_day_hour!E22="","",_speed_day_hour!E22)</f>
         <v/>
       </c>
       <c r="H26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F22="","",_CDQdust_day_hour!F22)</f>
+        <f>IF(_speed_day_hour!F22="","",_speed_day_hour!F22)</f>
         <v/>
       </c>
       <c r="I26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G22="","",_CDQdust_day_hour!G22)</f>
+        <f>IF(_speed_day_hour!G22="","",_speed_day_hour!G22)</f>
         <v/>
       </c>
       <c r="J26" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H22="","",_CDQdust_day_hour!H22)</f>
+        <f>IF(_speed_day_hour!H22="","",_speed_day_hour!H22)</f>
         <v/>
       </c>
       <c r="K26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I22="","",_CDQdust_day_hour!I22)</f>
+        <f>IF(_speed_day_hour!I22="","",_speed_day_hour!I22)</f>
         <v/>
       </c>
       <c r="L26" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J22="","",_CDQdust_day_hour!J22)</f>
+        <f>IF(_speed_day_hour!J22="","",_speed_day_hour!J22)</f>
         <v/>
       </c>
       <c r="M26" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K22="","",_CDQdust_day_hour!K22)</f>
+        <f>IF(_speed_day_hour!K22="","",_speed_day_hour!K22)</f>
         <v/>
       </c>
       <c r="N26" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L22="","",_CDQdust_day_hour!L22)</f>
+        <f>IF(_speed_day_hour!L22="","",_speed_day_hour!L22)</f>
         <v/>
       </c>
       <c r="O26" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M22="","",_CDQdust_day_hour!M22)</f>
+        <f>IF(_speed_day_hour!M22="","",_speed_day_hour!M22)</f>
         <v/>
       </c>
       <c r="P26" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N22="","",_CDQdust_day_hour!N22)</f>
+        <f>IF(_speed_day_hour!N22="","",_speed_day_hour!N22)</f>
         <v/>
       </c>
       <c r="Q26" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O22="","",_CDQdust_day_hour!O22)</f>
+        <f>IF(_speed_day_hour!O22="","",_speed_day_hour!O22)</f>
         <v/>
       </c>
       <c r="R26" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P22="","",_CDQdust_day_hour!P22)</f>
+        <f>IF(_speed_day_hour!P22="","",_speed_day_hour!P22)</f>
         <v/>
       </c>
       <c r="S26" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q22="","",_CDQdust_day_hour!Q22)</f>
+        <f>IF(_speed_day_hour!Q22="","",_speed_day_hour!Q22)</f>
         <v/>
       </c>
       <c r="T26" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R22="","",_CDQdust_day_hour!R22)</f>
+        <f>IF(_speed_day_hour!R22="","",_speed_day_hour!R22)</f>
         <v/>
       </c>
       <c r="U26" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S22="","",_CDQdust_day_hour!S22)</f>
+        <f>IF(_speed_day_hour!S22="","",_speed_day_hour!S22)</f>
         <v/>
       </c>
       <c r="V26" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T22="","",_CDQdust_day_hour!T22)</f>
+        <f>IF(_speed_day_hour!T22="","",_speed_day_hour!T22)</f>
         <v/>
       </c>
       <c r="W26" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U22="","",_CDQdust_day_hour!U22)</f>
+        <f>IF(_speed_day_hour!U22="","",_speed_day_hour!U22)</f>
         <v/>
       </c>
     </row>
@@ -4560,87 +4560,87 @@
         <v>0.875</v>
       </c>
       <c r="C27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A23="","",_CDQdust_day_hour!A23)</f>
+        <f>IF(_speed_day_hour!A23="","",_speed_day_hour!A23)</f>
         <v/>
       </c>
       <c r="D27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B23="","",_CDQdust_day_hour!B23)</f>
+        <f>IF(_speed_day_hour!B23="","",_speed_day_hour!B23)</f>
         <v/>
       </c>
       <c r="E27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C23="","",_CDQdust_day_hour!C23)</f>
+        <f>IF(_speed_day_hour!C23="","",_speed_day_hour!C23)</f>
         <v/>
       </c>
       <c r="F27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D23="","",_CDQdust_day_hour!D23)</f>
+        <f>IF(_speed_day_hour!D23="","",_speed_day_hour!D23)</f>
         <v/>
       </c>
       <c r="G27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E23="","",_CDQdust_day_hour!E23)</f>
+        <f>IF(_speed_day_hour!E23="","",_speed_day_hour!E23)</f>
         <v/>
       </c>
       <c r="H27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F23="","",_CDQdust_day_hour!F23)</f>
+        <f>IF(_speed_day_hour!F23="","",_speed_day_hour!F23)</f>
         <v/>
       </c>
       <c r="I27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G23="","",_CDQdust_day_hour!G23)</f>
+        <f>IF(_speed_day_hour!G23="","",_speed_day_hour!G23)</f>
         <v/>
       </c>
       <c r="J27" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H23="","",_CDQdust_day_hour!H23)</f>
+        <f>IF(_speed_day_hour!H23="","",_speed_day_hour!H23)</f>
         <v/>
       </c>
       <c r="K27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I23="","",_CDQdust_day_hour!I23)</f>
+        <f>IF(_speed_day_hour!I23="","",_speed_day_hour!I23)</f>
         <v/>
       </c>
       <c r="L27" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J23="","",_CDQdust_day_hour!J23)</f>
+        <f>IF(_speed_day_hour!J23="","",_speed_day_hour!J23)</f>
         <v/>
       </c>
       <c r="M27" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K23="","",_CDQdust_day_hour!K23)</f>
+        <f>IF(_speed_day_hour!K23="","",_speed_day_hour!K23)</f>
         <v/>
       </c>
       <c r="N27" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L23="","",_CDQdust_day_hour!L23)</f>
+        <f>IF(_speed_day_hour!L23="","",_speed_day_hour!L23)</f>
         <v/>
       </c>
       <c r="O27" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M23="","",_CDQdust_day_hour!M23)</f>
+        <f>IF(_speed_day_hour!M23="","",_speed_day_hour!M23)</f>
         <v/>
       </c>
       <c r="P27" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N23="","",_CDQdust_day_hour!N23)</f>
+        <f>IF(_speed_day_hour!N23="","",_speed_day_hour!N23)</f>
         <v/>
       </c>
       <c r="Q27" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O23="","",_CDQdust_day_hour!O23)</f>
+        <f>IF(_speed_day_hour!O23="","",_speed_day_hour!O23)</f>
         <v/>
       </c>
       <c r="R27" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P23="","",_CDQdust_day_hour!P23)</f>
+        <f>IF(_speed_day_hour!P23="","",_speed_day_hour!P23)</f>
         <v/>
       </c>
       <c r="S27" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q23="","",_CDQdust_day_hour!Q23)</f>
+        <f>IF(_speed_day_hour!Q23="","",_speed_day_hour!Q23)</f>
         <v/>
       </c>
       <c r="T27" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R23="","",_CDQdust_day_hour!R23)</f>
+        <f>IF(_speed_day_hour!R23="","",_speed_day_hour!R23)</f>
         <v/>
       </c>
       <c r="U27" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S23="","",_CDQdust_day_hour!S23)</f>
+        <f>IF(_speed_day_hour!S23="","",_speed_day_hour!S23)</f>
         <v/>
       </c>
       <c r="V27" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T23="","",_CDQdust_day_hour!T23)</f>
+        <f>IF(_speed_day_hour!T23="","",_speed_day_hour!T23)</f>
         <v/>
       </c>
       <c r="W27" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U23="","",_CDQdust_day_hour!U23)</f>
+        <f>IF(_speed_day_hour!U23="","",_speed_day_hour!U23)</f>
         <v/>
       </c>
     </row>
@@ -4649,87 +4649,87 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A24="","",_CDQdust_day_hour!A24)</f>
+        <f>IF(_speed_day_hour!A24="","",_speed_day_hour!A24)</f>
         <v/>
       </c>
       <c r="D28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B24="","",_CDQdust_day_hour!B24)</f>
+        <f>IF(_speed_day_hour!B24="","",_speed_day_hour!B24)</f>
         <v/>
       </c>
       <c r="E28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C24="","",_CDQdust_day_hour!C24)</f>
+        <f>IF(_speed_day_hour!C24="","",_speed_day_hour!C24)</f>
         <v/>
       </c>
       <c r="F28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D24="","",_CDQdust_day_hour!D24)</f>
+        <f>IF(_speed_day_hour!D24="","",_speed_day_hour!D24)</f>
         <v/>
       </c>
       <c r="G28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E24="","",_CDQdust_day_hour!E24)</f>
+        <f>IF(_speed_day_hour!E24="","",_speed_day_hour!E24)</f>
         <v/>
       </c>
       <c r="H28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F24="","",_CDQdust_day_hour!F24)</f>
+        <f>IF(_speed_day_hour!F24="","",_speed_day_hour!F24)</f>
         <v/>
       </c>
       <c r="I28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G24="","",_CDQdust_day_hour!G24)</f>
+        <f>IF(_speed_day_hour!G24="","",_speed_day_hour!G24)</f>
         <v/>
       </c>
       <c r="J28" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H24="","",_CDQdust_day_hour!H24)</f>
+        <f>IF(_speed_day_hour!H24="","",_speed_day_hour!H24)</f>
         <v/>
       </c>
       <c r="K28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I24="","",_CDQdust_day_hour!I24)</f>
+        <f>IF(_speed_day_hour!I24="","",_speed_day_hour!I24)</f>
         <v/>
       </c>
       <c r="L28" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J24="","",_CDQdust_day_hour!J24)</f>
+        <f>IF(_speed_day_hour!J24="","",_speed_day_hour!J24)</f>
         <v/>
       </c>
       <c r="M28" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K24="","",_CDQdust_day_hour!K24)</f>
+        <f>IF(_speed_day_hour!K24="","",_speed_day_hour!K24)</f>
         <v/>
       </c>
       <c r="N28" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L24="","",_CDQdust_day_hour!L24)</f>
+        <f>IF(_speed_day_hour!L24="","",_speed_day_hour!L24)</f>
         <v/>
       </c>
       <c r="O28" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M24="","",_CDQdust_day_hour!M24)</f>
+        <f>IF(_speed_day_hour!M24="","",_speed_day_hour!M24)</f>
         <v/>
       </c>
       <c r="P28" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N24="","",_CDQdust_day_hour!N24)</f>
+        <f>IF(_speed_day_hour!N24="","",_speed_day_hour!N24)</f>
         <v/>
       </c>
       <c r="Q28" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O24="","",_CDQdust_day_hour!O24)</f>
+        <f>IF(_speed_day_hour!O24="","",_speed_day_hour!O24)</f>
         <v/>
       </c>
       <c r="R28" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P24="","",_CDQdust_day_hour!P24)</f>
+        <f>IF(_speed_day_hour!P24="","",_speed_day_hour!P24)</f>
         <v/>
       </c>
       <c r="S28" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q24="","",_CDQdust_day_hour!Q24)</f>
+        <f>IF(_speed_day_hour!Q24="","",_speed_day_hour!Q24)</f>
         <v/>
       </c>
       <c r="T28" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R24="","",_CDQdust_day_hour!R24)</f>
+        <f>IF(_speed_day_hour!R24="","",_speed_day_hour!R24)</f>
         <v/>
       </c>
       <c r="U28" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S24="","",_CDQdust_day_hour!S24)</f>
+        <f>IF(_speed_day_hour!S24="","",_speed_day_hour!S24)</f>
         <v/>
       </c>
       <c r="V28" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T24="","",_CDQdust_day_hour!T24)</f>
+        <f>IF(_speed_day_hour!T24="","",_speed_day_hour!T24)</f>
         <v/>
       </c>
       <c r="W28" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U24="","",_CDQdust_day_hour!U24)</f>
+        <f>IF(_speed_day_hour!U24="","",_speed_day_hour!U24)</f>
         <v/>
       </c>
     </row>
@@ -4738,87 +4738,87 @@
         <v>0.958333333333333</v>
       </c>
       <c r="C29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!A25="","",_CDQdust_day_hour!A25)</f>
+        <f>IF(_speed_day_hour!A25="","",_speed_day_hour!A25)</f>
         <v/>
       </c>
       <c r="D29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!B25="","",_CDQdust_day_hour!B25)</f>
+        <f>IF(_speed_day_hour!B25="","",_speed_day_hour!B25)</f>
         <v/>
       </c>
       <c r="E29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!C25="","",_CDQdust_day_hour!C25)</f>
+        <f>IF(_speed_day_hour!C25="","",_speed_day_hour!C25)</f>
         <v/>
       </c>
       <c r="F29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!D25="","",_CDQdust_day_hour!D25)</f>
+        <f>IF(_speed_day_hour!D25="","",_speed_day_hour!D25)</f>
         <v/>
       </c>
       <c r="G29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!E25="","",_CDQdust_day_hour!E25)</f>
+        <f>IF(_speed_day_hour!E25="","",_speed_day_hour!E25)</f>
         <v/>
       </c>
       <c r="H29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!F25="","",_CDQdust_day_hour!F25)</f>
+        <f>IF(_speed_day_hour!F25="","",_speed_day_hour!F25)</f>
         <v/>
       </c>
       <c r="I29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!G25="","",_CDQdust_day_hour!G25)</f>
+        <f>IF(_speed_day_hour!G25="","",_speed_day_hour!G25)</f>
         <v/>
       </c>
       <c r="J29" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!H25="","",_CDQdust_day_hour!H25)</f>
+        <f>IF(_speed_day_hour!H25="","",_speed_day_hour!H25)</f>
         <v/>
       </c>
       <c r="K29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!I25="","",_CDQdust_day_hour!I25)</f>
+        <f>IF(_speed_day_hour!I25="","",_speed_day_hour!I25)</f>
         <v/>
       </c>
       <c r="L29" s="22" t="str">
-        <f>IF(_CDQdust_day_hour!J25="","",_CDQdust_day_hour!J25)</f>
+        <f>IF(_speed_day_hour!J25="","",_speed_day_hour!J25)</f>
         <v/>
       </c>
       <c r="M29" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!K25="","",_CDQdust_day_hour!K25)</f>
+        <f>IF(_speed_day_hour!K25="","",_speed_day_hour!K25)</f>
         <v/>
       </c>
       <c r="N29" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!L25="","",_CDQdust_day_hour!L25)</f>
+        <f>IF(_speed_day_hour!L25="","",_speed_day_hour!L25)</f>
         <v/>
       </c>
       <c r="O29" s="32" t="str">
-        <f>IF(_CDQdust_day_hour!M25="","",_CDQdust_day_hour!M25)</f>
+        <f>IF(_speed_day_hour!M25="","",_speed_day_hour!M25)</f>
         <v/>
       </c>
       <c r="P29" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!N25="","",_CDQdust_day_hour!N25)</f>
+        <f>IF(_speed_day_hour!N25="","",_speed_day_hour!N25)</f>
         <v/>
       </c>
       <c r="Q29" s="33" t="str">
-        <f>IF(_CDQdust_day_hour!O25="","",_CDQdust_day_hour!O25)</f>
+        <f>IF(_speed_day_hour!O25="","",_speed_day_hour!O25)</f>
         <v/>
       </c>
       <c r="R29" s="45" t="str">
-        <f>IF(_CDQdust_day_hour!P25="","",_CDQdust_day_hour!P25)</f>
+        <f>IF(_speed_day_hour!P25="","",_speed_day_hour!P25)</f>
         <v/>
       </c>
       <c r="S29" s="49" t="str">
-        <f>IF(_CDQdust_day_hour!Q25="","",_CDQdust_day_hour!Q25)</f>
+        <f>IF(_speed_day_hour!Q25="","",_speed_day_hour!Q25)</f>
         <v/>
       </c>
       <c r="T29" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!R25="","",_CDQdust_day_hour!R25)</f>
+        <f>IF(_speed_day_hour!R25="","",_speed_day_hour!R25)</f>
         <v/>
       </c>
       <c r="U29" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!S25="","",_CDQdust_day_hour!S25)</f>
+        <f>IF(_speed_day_hour!S25="","",_speed_day_hour!S25)</f>
         <v/>
       </c>
       <c r="V29" s="46" t="str">
-        <f>IF(_CDQdust_day_hour!T25="","",_CDQdust_day_hour!T25)</f>
+        <f>IF(_speed_day_hour!T25="","",_speed_day_hour!T25)</f>
         <v/>
       </c>
       <c r="W29" s="47" t="str">
-        <f>IF(_CDQdust_day_hour!U25="","",_CDQdust_day_hour!U25)</f>
+        <f>IF(_speed_day_hour!U25="","",_speed_day_hour!U25)</f>
         <v/>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5836,7 +5836,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/excel/finished/焦化12/CK12-干熄焦-CDQ除尘报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-干熄焦-CDQ除尘报表（日）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.CDQ除尘" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>1&amp;2#焦炉CDQ除尘</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G005-01A</t>
+    <t>SGSSG-BSMCSA0009-G006-05A</t>
   </si>
   <si>
     <t xml:space="preserve">     参数
@@ -935,13 +935,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1021,6 +1020,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1036,93 +1139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,25 +1147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,7 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,19 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,96 +1237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1340,7 +1249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,13 +1291,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,15 +1776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1804,8 +1794,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,15 +1841,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1845,17 +1850,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1880,10 +1879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,135 +1894,135 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,97 +2084,103 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,14 +2461,16 @@
   <dimension ref="B1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.0833333333333" style="1" customWidth="1"/>
-    <col min="3" max="23" width="11.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="18" width="11.0833333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.0833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="11.0833333333333" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2548,25 +2555,25 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="37" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="41"/>
+      <c r="W3" s="40"/>
     </row>
     <row r="4" ht="57" spans="2:23">
       <c r="B4" s="16"/>
@@ -2608,13 +2615,13 @@
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43" t="s">
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2718,9 +2725,9 @@
         <f>IF(_speed_day_hour!G2="","",_speed_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="21">
         <f>IF(_speed_day_hour!H2="","",_speed_day_hour!H2)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K6" s="21" t="str">
         <f>IF(_speed_day_hour!I2="","",_speed_day_hour!I2)</f>
@@ -2746,15 +2753,15 @@
         <f>IF(_speed_day_hour!N2="","",_speed_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="21" t="str">
         <f>IF(_speed_day_hour!O2="","",_speed_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="45" t="str">
+      <c r="R6" s="44" t="str">
         <f>IF(_speed_day_hour!P2="","",_speed_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="46" t="str">
+      <c r="S6" s="45" t="str">
         <f>IF(_speed_day_hour!Q2="","",_speed_day_hour!Q2)</f>
         <v/>
       </c>
@@ -2762,7 +2769,7 @@
         <f>IF(_speed_day_hour!R2="","",_speed_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U6" s="46" t="str">
+      <c r="U6" s="45" t="str">
         <f>IF(_speed_day_hour!S2="","",_speed_day_hour!S2)</f>
         <v/>
       </c>
@@ -2807,9 +2814,9 @@
         <f>IF(_speed_day_hour!G3="","",_speed_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="31" t="str">
+      <c r="J7" s="21">
         <f>IF(_speed_day_hour!H3="","",_speed_day_hour!H3)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K7" s="21" t="str">
         <f>IF(_speed_day_hour!I3="","",_speed_day_hour!I3)</f>
@@ -2835,15 +2842,15 @@
         <f>IF(_speed_day_hour!N3="","",_speed_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q7" s="31" t="str">
+      <c r="Q7" s="21" t="str">
         <f>IF(_speed_day_hour!O3="","",_speed_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="45" t="str">
+      <c r="R7" s="44" t="str">
         <f>IF(_speed_day_hour!P3="","",_speed_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="46" t="str">
+      <c r="S7" s="45" t="str">
         <f>IF(_speed_day_hour!Q3="","",_speed_day_hour!Q3)</f>
         <v/>
       </c>
@@ -2851,7 +2858,7 @@
         <f>IF(_speed_day_hour!R3="","",_speed_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U7" s="46" t="str">
+      <c r="U7" s="45" t="str">
         <f>IF(_speed_day_hour!S3="","",_speed_day_hour!S3)</f>
         <v/>
       </c>
@@ -2896,9 +2903,9 @@
         <f>IF(_speed_day_hour!G4="","",_speed_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="21">
         <f>IF(_speed_day_hour!H4="","",_speed_day_hour!H4)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K8" s="21" t="str">
         <f>IF(_speed_day_hour!I4="","",_speed_day_hour!I4)</f>
@@ -2924,7 +2931,7 @@
         <f>IF(_speed_day_hour!N4="","",_speed_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q8" s="31" t="str">
+      <c r="Q8" s="21" t="str">
         <f>IF(_speed_day_hour!O4="","",_speed_day_hour!O4)</f>
         <v/>
       </c>
@@ -2932,7 +2939,7 @@
         <f>IF(_speed_day_hour!P4="","",_speed_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="46" t="str">
+      <c r="S8" s="45" t="str">
         <f>IF(_speed_day_hour!Q4="","",_speed_day_hour!Q4)</f>
         <v/>
       </c>
@@ -2940,7 +2947,7 @@
         <f>IF(_speed_day_hour!R4="","",_speed_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U8" s="46" t="str">
+      <c r="U8" s="45" t="str">
         <f>IF(_speed_day_hour!S4="","",_speed_day_hour!S4)</f>
         <v/>
       </c>
@@ -2985,9 +2992,9 @@
         <f>IF(_speed_day_hour!G5="","",_speed_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="21">
         <f>IF(_speed_day_hour!H5="","",_speed_day_hour!H5)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K9" s="21" t="str">
         <f>IF(_speed_day_hour!I5="","",_speed_day_hour!I5)</f>
@@ -3013,7 +3020,7 @@
         <f>IF(_speed_day_hour!N5="","",_speed_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q9" s="31" t="str">
+      <c r="Q9" s="21" t="str">
         <f>IF(_speed_day_hour!O5="","",_speed_day_hour!O5)</f>
         <v/>
       </c>
@@ -3021,7 +3028,7 @@
         <f>IF(_speed_day_hour!P5="","",_speed_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="46" t="str">
+      <c r="S9" s="45" t="str">
         <f>IF(_speed_day_hour!Q5="","",_speed_day_hour!Q5)</f>
         <v/>
       </c>
@@ -3029,7 +3036,7 @@
         <f>IF(_speed_day_hour!R5="","",_speed_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U9" s="46" t="str">
+      <c r="U9" s="45" t="str">
         <f>IF(_speed_day_hour!S5="","",_speed_day_hour!S5)</f>
         <v/>
       </c>
@@ -3074,9 +3081,9 @@
         <f>IF(_speed_day_hour!G6="","",_speed_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J10" s="31" t="str">
+      <c r="J10" s="21">
         <f>IF(_speed_day_hour!H6="","",_speed_day_hour!H6)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K10" s="21" t="str">
         <f>IF(_speed_day_hour!I6="","",_speed_day_hour!I6)</f>
@@ -3102,7 +3109,7 @@
         <f>IF(_speed_day_hour!N6="","",_speed_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q10" s="31" t="str">
+      <c r="Q10" s="21" t="str">
         <f>IF(_speed_day_hour!O6="","",_speed_day_hour!O6)</f>
         <v/>
       </c>
@@ -3110,7 +3117,7 @@
         <f>IF(_speed_day_hour!P6="","",_speed_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="46" t="str">
+      <c r="S10" s="45" t="str">
         <f>IF(_speed_day_hour!Q6="","",_speed_day_hour!Q6)</f>
         <v/>
       </c>
@@ -3118,7 +3125,7 @@
         <f>IF(_speed_day_hour!R6="","",_speed_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U10" s="46" t="str">
+      <c r="U10" s="45" t="str">
         <f>IF(_speed_day_hour!S6="","",_speed_day_hour!S6)</f>
         <v/>
       </c>
@@ -3163,9 +3170,9 @@
         <f>IF(_speed_day_hour!G7="","",_speed_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J11" s="31" t="str">
+      <c r="J11" s="21">
         <f>IF(_speed_day_hour!H7="","",_speed_day_hour!H7)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K11" s="21" t="str">
         <f>IF(_speed_day_hour!I7="","",_speed_day_hour!I7)</f>
@@ -3191,7 +3198,7 @@
         <f>IF(_speed_day_hour!N7="","",_speed_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q11" s="31" t="str">
+      <c r="Q11" s="21" t="str">
         <f>IF(_speed_day_hour!O7="","",_speed_day_hour!O7)</f>
         <v/>
       </c>
@@ -3199,7 +3206,7 @@
         <f>IF(_speed_day_hour!P7="","",_speed_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="46" t="str">
+      <c r="S11" s="45" t="str">
         <f>IF(_speed_day_hour!Q7="","",_speed_day_hour!Q7)</f>
         <v/>
       </c>
@@ -3207,7 +3214,7 @@
         <f>IF(_speed_day_hour!R7="","",_speed_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U11" s="46" t="str">
+      <c r="U11" s="45" t="str">
         <f>IF(_speed_day_hour!S7="","",_speed_day_hour!S7)</f>
         <v/>
       </c>
@@ -3252,9 +3259,9 @@
         <f>IF(_speed_day_hour!G8="","",_speed_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J12" s="31" t="str">
+      <c r="J12" s="21">
         <f>IF(_speed_day_hour!H8="","",_speed_day_hour!H8)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K12" s="21" t="str">
         <f>IF(_speed_day_hour!I8="","",_speed_day_hour!I8)</f>
@@ -3280,7 +3287,7 @@
         <f>IF(_speed_day_hour!N8="","",_speed_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q12" s="31" t="str">
+      <c r="Q12" s="21" t="str">
         <f>IF(_speed_day_hour!O8="","",_speed_day_hour!O8)</f>
         <v/>
       </c>
@@ -3288,7 +3295,7 @@
         <f>IF(_speed_day_hour!P8="","",_speed_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="46" t="str">
+      <c r="S12" s="45" t="str">
         <f>IF(_speed_day_hour!Q8="","",_speed_day_hour!Q8)</f>
         <v/>
       </c>
@@ -3296,7 +3303,7 @@
         <f>IF(_speed_day_hour!R8="","",_speed_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U12" s="46" t="str">
+      <c r="U12" s="45" t="str">
         <f>IF(_speed_day_hour!S8="","",_speed_day_hour!S8)</f>
         <v/>
       </c>
@@ -3341,9 +3348,9 @@
         <f>IF(_speed_day_hour!G9="","",_speed_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J13" s="31" t="str">
+      <c r="J13" s="21">
         <f>IF(_speed_day_hour!H9="","",_speed_day_hour!H9)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K13" s="21" t="str">
         <f>IF(_speed_day_hour!I9="","",_speed_day_hour!I9)</f>
@@ -3369,7 +3376,7 @@
         <f>IF(_speed_day_hour!N9="","",_speed_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q13" s="31" t="str">
+      <c r="Q13" s="21" t="str">
         <f>IF(_speed_day_hour!O9="","",_speed_day_hour!O9)</f>
         <v/>
       </c>
@@ -3377,7 +3384,7 @@
         <f>IF(_speed_day_hour!P9="","",_speed_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="46" t="str">
+      <c r="S13" s="45" t="str">
         <f>IF(_speed_day_hour!Q9="","",_speed_day_hour!Q9)</f>
         <v/>
       </c>
@@ -3385,7 +3392,7 @@
         <f>IF(_speed_day_hour!R9="","",_speed_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U13" s="46" t="str">
+      <c r="U13" s="45" t="str">
         <f>IF(_speed_day_hour!S9="","",_speed_day_hour!S9)</f>
         <v/>
       </c>
@@ -3430,9 +3437,9 @@
         <f>IF(_speed_day_hour!G10="","",_speed_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="31" t="str">
+      <c r="J14" s="21">
         <f>IF(_speed_day_hour!H10="","",_speed_day_hour!H10)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K14" s="21" t="str">
         <f>IF(_speed_day_hour!I10="","",_speed_day_hour!I10)</f>
@@ -3458,7 +3465,7 @@
         <f>IF(_speed_day_hour!N10="","",_speed_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="31" t="str">
+      <c r="Q14" s="21" t="str">
         <f>IF(_speed_day_hour!O10="","",_speed_day_hour!O10)</f>
         <v/>
       </c>
@@ -3466,7 +3473,7 @@
         <f>IF(_speed_day_hour!P10="","",_speed_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="46" t="str">
+      <c r="S14" s="45" t="str">
         <f>IF(_speed_day_hour!Q10="","",_speed_day_hour!Q10)</f>
         <v/>
       </c>
@@ -3474,7 +3481,7 @@
         <f>IF(_speed_day_hour!R10="","",_speed_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U14" s="46" t="str">
+      <c r="U14" s="45" t="str">
         <f>IF(_speed_day_hour!S10="","",_speed_day_hour!S10)</f>
         <v/>
       </c>
@@ -3519,9 +3526,9 @@
         <f>IF(_speed_day_hour!G11="","",_speed_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J15" s="31" t="str">
+      <c r="J15" s="21">
         <f>IF(_speed_day_hour!H11="","",_speed_day_hour!H11)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K15" s="21" t="str">
         <f>IF(_speed_day_hour!I11="","",_speed_day_hour!I11)</f>
@@ -3547,7 +3554,7 @@
         <f>IF(_speed_day_hour!N11="","",_speed_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q15" s="31" t="str">
+      <c r="Q15" s="21" t="str">
         <f>IF(_speed_day_hour!O11="","",_speed_day_hour!O11)</f>
         <v/>
       </c>
@@ -3555,7 +3562,7 @@
         <f>IF(_speed_day_hour!P11="","",_speed_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="46" t="str">
+      <c r="S15" s="45" t="str">
         <f>IF(_speed_day_hour!Q11="","",_speed_day_hour!Q11)</f>
         <v/>
       </c>
@@ -3563,7 +3570,7 @@
         <f>IF(_speed_day_hour!R11="","",_speed_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U15" s="46" t="str">
+      <c r="U15" s="45" t="str">
         <f>IF(_speed_day_hour!S11="","",_speed_day_hour!S11)</f>
         <v/>
       </c>
@@ -3608,9 +3615,9 @@
         <f>IF(_speed_day_hour!G12="","",_speed_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J16" s="31" t="str">
+      <c r="J16" s="21">
         <f>IF(_speed_day_hour!H12="","",_speed_day_hour!H12)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K16" s="21" t="str">
         <f>IF(_speed_day_hour!I12="","",_speed_day_hour!I12)</f>
@@ -3636,7 +3643,7 @@
         <f>IF(_speed_day_hour!N12="","",_speed_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q16" s="31" t="str">
+      <c r="Q16" s="21" t="str">
         <f>IF(_speed_day_hour!O12="","",_speed_day_hour!O12)</f>
         <v/>
       </c>
@@ -3644,7 +3651,7 @@
         <f>IF(_speed_day_hour!P12="","",_speed_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="46" t="str">
+      <c r="S16" s="45" t="str">
         <f>IF(_speed_day_hour!Q12="","",_speed_day_hour!Q12)</f>
         <v/>
       </c>
@@ -3652,7 +3659,7 @@
         <f>IF(_speed_day_hour!R12="","",_speed_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U16" s="46" t="str">
+      <c r="U16" s="45" t="str">
         <f>IF(_speed_day_hour!S12="","",_speed_day_hour!S12)</f>
         <v/>
       </c>
@@ -3697,9 +3704,9 @@
         <f>IF(_speed_day_hour!G13="","",_speed_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J17" s="31" t="str">
+      <c r="J17" s="21">
         <f>IF(_speed_day_hour!H13="","",_speed_day_hour!H13)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K17" s="21" t="str">
         <f>IF(_speed_day_hour!I13="","",_speed_day_hour!I13)</f>
@@ -3725,7 +3732,7 @@
         <f>IF(_speed_day_hour!N13="","",_speed_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q17" s="31" t="str">
+      <c r="Q17" s="21" t="str">
         <f>IF(_speed_day_hour!O13="","",_speed_day_hour!O13)</f>
         <v/>
       </c>
@@ -3733,7 +3740,7 @@
         <f>IF(_speed_day_hour!P13="","",_speed_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="46" t="str">
+      <c r="S17" s="45" t="str">
         <f>IF(_speed_day_hour!Q13="","",_speed_day_hour!Q13)</f>
         <v/>
       </c>
@@ -3741,7 +3748,7 @@
         <f>IF(_speed_day_hour!R13="","",_speed_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U17" s="46" t="str">
+      <c r="U17" s="45" t="str">
         <f>IF(_speed_day_hour!S13="","",_speed_day_hour!S13)</f>
         <v/>
       </c>
@@ -3786,9 +3793,9 @@
         <f>IF(_speed_day_hour!G14="","",_speed_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="22">
         <f>IF(_speed_day_hour!H14="","",_speed_day_hour!H14)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K18" s="22" t="str">
         <f>IF(_speed_day_hour!I14="","",_speed_day_hour!I14)</f>
@@ -3814,15 +3821,15 @@
         <f>IF(_speed_day_hour!N14="","",_speed_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="49" t="str">
         <f>IF(_speed_day_hour!O14="","",_speed_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="45" t="str">
+      <c r="R18" s="44" t="str">
         <f>IF(_speed_day_hour!P14="","",_speed_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="49" t="str">
+      <c r="S18" s="50" t="str">
         <f>IF(_speed_day_hour!Q14="","",_speed_day_hour!Q14)</f>
         <v/>
       </c>
@@ -3830,7 +3837,7 @@
         <f>IF(_speed_day_hour!R14="","",_speed_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U18" s="46" t="str">
+      <c r="U18" s="45" t="str">
         <f>IF(_speed_day_hour!S14="","",_speed_day_hour!S14)</f>
         <v/>
       </c>
@@ -3875,9 +3882,9 @@
         <f>IF(_speed_day_hour!G15="","",_speed_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="32" t="str">
+      <c r="J19" s="22">
         <f>IF(_speed_day_hour!H15="","",_speed_day_hour!H15)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K19" s="22" t="str">
         <f>IF(_speed_day_hour!I15="","",_speed_day_hour!I15)</f>
@@ -3903,15 +3910,15 @@
         <f>IF(_speed_day_hour!N15="","",_speed_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="33" t="str">
+      <c r="Q19" s="49" t="str">
         <f>IF(_speed_day_hour!O15="","",_speed_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="45" t="str">
+      <c r="R19" s="44" t="str">
         <f>IF(_speed_day_hour!P15="","",_speed_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="49" t="str">
+      <c r="S19" s="50" t="str">
         <f>IF(_speed_day_hour!Q15="","",_speed_day_hour!Q15)</f>
         <v/>
       </c>
@@ -3919,7 +3926,7 @@
         <f>IF(_speed_day_hour!R15="","",_speed_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U19" s="46" t="str">
+      <c r="U19" s="45" t="str">
         <f>IF(_speed_day_hour!S15="","",_speed_day_hour!S15)</f>
         <v/>
       </c>
@@ -3964,9 +3971,9 @@
         <f>IF(_speed_day_hour!G16="","",_speed_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="32" t="str">
+      <c r="J20" s="22">
         <f>IF(_speed_day_hour!H16="","",_speed_day_hour!H16)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K20" s="22" t="str">
         <f>IF(_speed_day_hour!I16="","",_speed_day_hour!I16)</f>
@@ -3992,15 +3999,15 @@
         <f>IF(_speed_day_hour!N16="","",_speed_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="33" t="str">
+      <c r="Q20" s="49" t="str">
         <f>IF(_speed_day_hour!O16="","",_speed_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="45" t="str">
+      <c r="R20" s="44" t="str">
         <f>IF(_speed_day_hour!P16="","",_speed_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="49" t="str">
+      <c r="S20" s="50" t="str">
         <f>IF(_speed_day_hour!Q16="","",_speed_day_hour!Q16)</f>
         <v/>
       </c>
@@ -4008,7 +4015,7 @@
         <f>IF(_speed_day_hour!R16="","",_speed_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U20" s="46" t="str">
+      <c r="U20" s="45" t="str">
         <f>IF(_speed_day_hour!S16="","",_speed_day_hour!S16)</f>
         <v/>
       </c>
@@ -4053,9 +4060,9 @@
         <f>IF(_speed_day_hour!G17="","",_speed_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="32" t="str">
+      <c r="J21" s="22">
         <f>IF(_speed_day_hour!H17="","",_speed_day_hour!H17)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K21" s="22" t="str">
         <f>IF(_speed_day_hour!I17="","",_speed_day_hour!I17)</f>
@@ -4081,15 +4088,15 @@
         <f>IF(_speed_day_hour!N17="","",_speed_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="33" t="str">
+      <c r="Q21" s="49" t="str">
         <f>IF(_speed_day_hour!O17="","",_speed_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="45" t="str">
+      <c r="R21" s="44" t="str">
         <f>IF(_speed_day_hour!P17="","",_speed_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="49" t="str">
+      <c r="S21" s="50" t="str">
         <f>IF(_speed_day_hour!Q17="","",_speed_day_hour!Q17)</f>
         <v/>
       </c>
@@ -4097,7 +4104,7 @@
         <f>IF(_speed_day_hour!R17="","",_speed_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U21" s="46" t="str">
+      <c r="U21" s="45" t="str">
         <f>IF(_speed_day_hour!S17="","",_speed_day_hour!S17)</f>
         <v/>
       </c>
@@ -4142,9 +4149,9 @@
         <f>IF(_speed_day_hour!G18="","",_speed_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="32" t="str">
+      <c r="J22" s="22">
         <f>IF(_speed_day_hour!H18="","",_speed_day_hour!H18)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K22" s="22" t="str">
         <f>IF(_speed_day_hour!I18="","",_speed_day_hour!I18)</f>
@@ -4170,15 +4177,15 @@
         <f>IF(_speed_day_hour!N18="","",_speed_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="33" t="str">
+      <c r="Q22" s="49" t="str">
         <f>IF(_speed_day_hour!O18="","",_speed_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="45" t="str">
+      <c r="R22" s="44" t="str">
         <f>IF(_speed_day_hour!P18="","",_speed_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="49" t="str">
+      <c r="S22" s="50" t="str">
         <f>IF(_speed_day_hour!Q18="","",_speed_day_hour!Q18)</f>
         <v/>
       </c>
@@ -4186,7 +4193,7 @@
         <f>IF(_speed_day_hour!R18="","",_speed_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U22" s="46" t="str">
+      <c r="U22" s="45" t="str">
         <f>IF(_speed_day_hour!S18="","",_speed_day_hour!S18)</f>
         <v/>
       </c>
@@ -4231,9 +4238,9 @@
         <f>IF(_speed_day_hour!G19="","",_speed_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="32" t="str">
+      <c r="J23" s="22">
         <f>IF(_speed_day_hour!H19="","",_speed_day_hour!H19)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K23" s="22" t="str">
         <f>IF(_speed_day_hour!I19="","",_speed_day_hour!I19)</f>
@@ -4259,15 +4266,15 @@
         <f>IF(_speed_day_hour!N19="","",_speed_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="33" t="str">
+      <c r="Q23" s="49" t="str">
         <f>IF(_speed_day_hour!O19="","",_speed_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="45" t="str">
+      <c r="R23" s="44" t="str">
         <f>IF(_speed_day_hour!P19="","",_speed_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="49" t="str">
+      <c r="S23" s="50" t="str">
         <f>IF(_speed_day_hour!Q19="","",_speed_day_hour!Q19)</f>
         <v/>
       </c>
@@ -4275,7 +4282,7 @@
         <f>IF(_speed_day_hour!R19="","",_speed_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U23" s="46" t="str">
+      <c r="U23" s="45" t="str">
         <f>IF(_speed_day_hour!S19="","",_speed_day_hour!S19)</f>
         <v/>
       </c>
@@ -4320,9 +4327,9 @@
         <f>IF(_speed_day_hour!G20="","",_speed_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="32" t="str">
+      <c r="J24" s="22">
         <f>IF(_speed_day_hour!H20="","",_speed_day_hour!H20)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K24" s="22" t="str">
         <f>IF(_speed_day_hour!I20="","",_speed_day_hour!I20)</f>
@@ -4348,15 +4355,15 @@
         <f>IF(_speed_day_hour!N20="","",_speed_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="33" t="str">
+      <c r="Q24" s="49" t="str">
         <f>IF(_speed_day_hour!O20="","",_speed_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="45" t="str">
+      <c r="R24" s="44" t="str">
         <f>IF(_speed_day_hour!P20="","",_speed_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="49" t="str">
+      <c r="S24" s="50" t="str">
         <f>IF(_speed_day_hour!Q20="","",_speed_day_hour!Q20)</f>
         <v/>
       </c>
@@ -4364,7 +4371,7 @@
         <f>IF(_speed_day_hour!R20="","",_speed_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U24" s="46" t="str">
+      <c r="U24" s="45" t="str">
         <f>IF(_speed_day_hour!S20="","",_speed_day_hour!S20)</f>
         <v/>
       </c>
@@ -4409,9 +4416,9 @@
         <f>IF(_speed_day_hour!G21="","",_speed_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="32" t="str">
+      <c r="J25" s="22">
         <f>IF(_speed_day_hour!H21="","",_speed_day_hour!H21)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K25" s="22" t="str">
         <f>IF(_speed_day_hour!I21="","",_speed_day_hour!I21)</f>
@@ -4437,15 +4444,15 @@
         <f>IF(_speed_day_hour!N21="","",_speed_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="33" t="str">
+      <c r="Q25" s="49" t="str">
         <f>IF(_speed_day_hour!O21="","",_speed_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="45" t="str">
+      <c r="R25" s="44" t="str">
         <f>IF(_speed_day_hour!P21="","",_speed_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="49" t="str">
+      <c r="S25" s="50" t="str">
         <f>IF(_speed_day_hour!Q21="","",_speed_day_hour!Q21)</f>
         <v/>
       </c>
@@ -4453,7 +4460,7 @@
         <f>IF(_speed_day_hour!R21="","",_speed_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U25" s="46" t="str">
+      <c r="U25" s="45" t="str">
         <f>IF(_speed_day_hour!S21="","",_speed_day_hour!S21)</f>
         <v/>
       </c>
@@ -4498,9 +4505,9 @@
         <f>IF(_speed_day_hour!G22="","",_speed_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="32" t="str">
+      <c r="J26" s="22">
         <f>IF(_speed_day_hour!H22="","",_speed_day_hour!H22)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K26" s="22" t="str">
         <f>IF(_speed_day_hour!I22="","",_speed_day_hour!I22)</f>
@@ -4526,15 +4533,15 @@
         <f>IF(_speed_day_hour!N22="","",_speed_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="33" t="str">
+      <c r="Q26" s="49" t="str">
         <f>IF(_speed_day_hour!O22="","",_speed_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="45" t="str">
+      <c r="R26" s="44" t="str">
         <f>IF(_speed_day_hour!P22="","",_speed_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="49" t="str">
+      <c r="S26" s="50" t="str">
         <f>IF(_speed_day_hour!Q22="","",_speed_day_hour!Q22)</f>
         <v/>
       </c>
@@ -4542,7 +4549,7 @@
         <f>IF(_speed_day_hour!R22="","",_speed_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U26" s="46" t="str">
+      <c r="U26" s="45" t="str">
         <f>IF(_speed_day_hour!S22="","",_speed_day_hour!S22)</f>
         <v/>
       </c>
@@ -4587,9 +4594,9 @@
         <f>IF(_speed_day_hour!G23="","",_speed_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="32" t="str">
+      <c r="J27" s="22">
         <f>IF(_speed_day_hour!H23="","",_speed_day_hour!H23)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K27" s="22" t="str">
         <f>IF(_speed_day_hour!I23="","",_speed_day_hour!I23)</f>
@@ -4615,15 +4622,15 @@
         <f>IF(_speed_day_hour!N23="","",_speed_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="33" t="str">
+      <c r="Q27" s="49" t="str">
         <f>IF(_speed_day_hour!O23="","",_speed_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="45" t="str">
+      <c r="R27" s="44" t="str">
         <f>IF(_speed_day_hour!P23="","",_speed_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="49" t="str">
+      <c r="S27" s="50" t="str">
         <f>IF(_speed_day_hour!Q23="","",_speed_day_hour!Q23)</f>
         <v/>
       </c>
@@ -4631,7 +4638,7 @@
         <f>IF(_speed_day_hour!R23="","",_speed_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U27" s="46" t="str">
+      <c r="U27" s="45" t="str">
         <f>IF(_speed_day_hour!S23="","",_speed_day_hour!S23)</f>
         <v/>
       </c>
@@ -4676,9 +4683,9 @@
         <f>IF(_speed_day_hour!G24="","",_speed_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="32" t="str">
+      <c r="J28" s="22">
         <f>IF(_speed_day_hour!H24="","",_speed_day_hour!H24)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K28" s="22" t="str">
         <f>IF(_speed_day_hour!I24="","",_speed_day_hour!I24)</f>
@@ -4704,15 +4711,15 @@
         <f>IF(_speed_day_hour!N24="","",_speed_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="33" t="str">
+      <c r="Q28" s="49" t="str">
         <f>IF(_speed_day_hour!O24="","",_speed_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="45" t="str">
+      <c r="R28" s="44" t="str">
         <f>IF(_speed_day_hour!P24="","",_speed_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="49" t="str">
+      <c r="S28" s="50" t="str">
         <f>IF(_speed_day_hour!Q24="","",_speed_day_hour!Q24)</f>
         <v/>
       </c>
@@ -4720,7 +4727,7 @@
         <f>IF(_speed_day_hour!R24="","",_speed_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U28" s="46" t="str">
+      <c r="U28" s="45" t="str">
         <f>IF(_speed_day_hour!S24="","",_speed_day_hour!S24)</f>
         <v/>
       </c>
@@ -4765,9 +4772,9 @@
         <f>IF(_speed_day_hour!G25="","",_speed_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="32" t="str">
+      <c r="J29" s="22">
         <f>IF(_speed_day_hour!H25="","",_speed_day_hour!H25)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K29" s="22" t="str">
         <f>IF(_speed_day_hour!I25="","",_speed_day_hour!I25)</f>
@@ -4793,15 +4800,15 @@
         <f>IF(_speed_day_hour!N25="","",_speed_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="33" t="str">
+      <c r="Q29" s="49" t="str">
         <f>IF(_speed_day_hour!O25="","",_speed_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="45" t="str">
+      <c r="R29" s="44" t="str">
         <f>IF(_speed_day_hour!P25="","",_speed_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="49" t="str">
+      <c r="S29" s="50" t="str">
         <f>IF(_speed_day_hour!Q25="","",_speed_day_hour!Q25)</f>
         <v/>
       </c>
@@ -4809,7 +4816,7 @@
         <f>IF(_speed_day_hour!R25="","",_speed_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U29" s="46" t="str">
+      <c r="U29" s="45" t="str">
         <f>IF(_speed_day_hour!S25="","",_speed_day_hour!S25)</f>
         <v/>
       </c>
@@ -4854,9 +4861,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="34" t="str">
+      <c r="J30" s="24">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K30" s="24" t="str">
         <f t="shared" si="0"/>
@@ -4882,7 +4889,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4894,7 +4901,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T30" s="33" t="str">
+      <c r="T30" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4902,11 +4909,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V30" s="33" t="str">
+      <c r="V30" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W30" s="50" t="str">
+      <c r="W30" s="51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4943,9 +4950,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="34" t="str">
+      <c r="J31" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K31" s="24" t="str">
         <f t="shared" si="1"/>
@@ -4971,7 +4978,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q31" s="33" t="str">
+      <c r="Q31" s="49" t="str">
         <f t="shared" ref="Q31:W31" si="2">IFERROR(AVERAGE(Q7:Q14),"")</f>
         <v/>
       </c>
@@ -4983,7 +4990,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T31" s="33" t="str">
+      <c r="T31" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4991,11 +4998,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V31" s="33" t="str">
+      <c r="V31" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W31" s="50" t="str">
+      <c r="W31" s="51" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5032,9 +5039,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="34" t="str">
+      <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K32" s="24" t="str">
         <f t="shared" si="3"/>
@@ -5060,7 +5067,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q32" s="33" t="str">
+      <c r="Q32" s="49" t="str">
         <f t="shared" ref="Q32:W32" si="4">IFERROR(AVERAGE(Q8:Q15),"")</f>
         <v/>
       </c>
@@ -5072,7 +5079,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T32" s="33" t="str">
+      <c r="T32" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5080,11 +5087,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V32" s="33" t="str">
+      <c r="V32" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W32" s="50" t="str">
+      <c r="W32" s="51" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5121,9 +5128,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J33" s="35" t="str">
+      <c r="J33" s="26">
         <f t="shared" si="5"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K33" s="26" t="str">
         <f t="shared" si="5"/>
@@ -5133,47 +5140,47 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="35" t="str">
+      <c r="M33" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N33" s="35" t="str">
+      <c r="N33" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O33" s="35" t="str">
+      <c r="O33" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P33" s="36" t="str">
+      <c r="P33" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q33" s="36" t="str">
+      <c r="Q33" s="52" t="str">
         <f t="shared" ref="Q33:W33" si="6">IFERROR(AVERAGE(Q9:Q16),"")</f>
         <v/>
       </c>
-      <c r="R33" s="36" t="str">
+      <c r="R33" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S33" s="36" t="str">
+      <c r="S33" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T33" s="36" t="str">
+      <c r="T33" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U33" s="36" t="str">
+      <c r="U33" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="V33" s="36" t="str">
+      <c r="V33" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W33" s="51" t="str">
+      <c r="W33" s="53" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5188,7 +5195,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="36" t="s">
         <v>53</v>
       </c>
       <c r="J34" s="28"/>
@@ -5206,7 +5213,7 @@
       <c r="T34" s="28"/>
       <c r="U34" s="28"/>
       <c r="V34" s="28"/>
-      <c r="W34" s="52"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" ht="20.5" customHeight="1" spans="2:23">
       <c r="B35" s="27" t="s">
@@ -5218,7 +5225,7 @@
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="36" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="28"/>
@@ -5228,7 +5235,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
-      <c r="Q35" s="37" t="s">
+      <c r="Q35" s="36" t="s">
         <v>57</v>
       </c>
       <c r="R35" s="28"/>
@@ -5236,7 +5243,7 @@
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
-      <c r="W35" s="52"/>
+      <c r="W35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5274,10 +5281,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H2" sqref="H2:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5307,9 +5314,7 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
@@ -5356,7 +5361,9 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
+      <c r="H2">
+        <v>31</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -5375,7 +5382,9 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3">
+        <v>31</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -5394,7 +5403,9 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4">
+        <v>31</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -5413,7 +5424,9 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5">
+        <v>31</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5432,7 +5445,9 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6">
+        <v>31</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -5451,7 +5466,9 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
+      <c r="H7">
+        <v>31</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -5470,7 +5487,9 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
+      <c r="H8">
+        <v>31</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -5489,7 +5508,9 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
+      <c r="H9">
+        <v>31</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -5508,7 +5529,9 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
+      <c r="H10">
+        <v>31</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -5527,7 +5550,9 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
+      <c r="H11">
+        <v>31</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -5546,7 +5571,9 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
+      <c r="H12">
+        <v>31</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -5565,7 +5592,9 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
+      <c r="H13">
+        <v>31</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -5584,7 +5613,9 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14"/>
+      <c r="H14">
+        <v>31</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -5603,7 +5634,9 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15"/>
+      <c r="H15">
+        <v>31</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -5622,7 +5655,9 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
+      <c r="H16">
+        <v>31</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5641,7 +5676,9 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17"/>
+      <c r="H17">
+        <v>31</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -5660,7 +5697,9 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18">
+        <v>31</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -5679,7 +5718,9 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
+      <c r="H19">
+        <v>31</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -5698,7 +5739,9 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
+      <c r="H20">
+        <v>31</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5717,7 +5760,9 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21"/>
+      <c r="H21">
+        <v>31</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -5736,7 +5781,9 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
+      <c r="H22">
+        <v>31</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -5755,7 +5802,9 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23">
+        <v>31</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -5774,7 +5823,9 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
+      <c r="H24">
+        <v>31</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -5793,7 +5844,9 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
+      <c r="H25">
+        <v>31</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -5803,6 +5856,121 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
